--- a/results/forecasting_results.xlsx
+++ b/results/forecasting_results.xlsx
@@ -637,7 +637,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D63"/>
+  <dimension ref="A1:D124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1535,6 +1535,860 @@
         <v>55.15573501586914</v>
       </c>
     </row>
+    <row r="64">
+      <c r="A64" s="3" t="n">
+        <v>45901</v>
+      </c>
+      <c r="B64" t="n">
+        <v>342.9862060546875</v>
+      </c>
+      <c r="C64" t="n">
+        <v>325.069709777832</v>
+      </c>
+      <c r="D64" t="n">
+        <v>359.6864242553711</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="3" t="n">
+        <v>45902</v>
+      </c>
+      <c r="B65" t="n">
+        <v>359.6520385742188</v>
+      </c>
+      <c r="C65" t="n">
+        <v>341.7355422973633</v>
+      </c>
+      <c r="D65" t="n">
+        <v>376.3522567749023</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="3" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B66" t="n">
+        <v>310.5028991699219</v>
+      </c>
+      <c r="C66" t="n">
+        <v>292.5864028930664</v>
+      </c>
+      <c r="D66" t="n">
+        <v>327.2031173706055</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="3" t="n">
+        <v>45904</v>
+      </c>
+      <c r="B67" t="n">
+        <v>328.3379516601562</v>
+      </c>
+      <c r="C67" t="n">
+        <v>310.4214553833008</v>
+      </c>
+      <c r="D67" t="n">
+        <v>345.0381698608398</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="3" t="n">
+        <v>45905</v>
+      </c>
+      <c r="B68" t="n">
+        <v>324.0828247070312</v>
+      </c>
+      <c r="C68" t="n">
+        <v>306.1663284301758</v>
+      </c>
+      <c r="D68" t="n">
+        <v>340.7830429077148</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="3" t="n">
+        <v>45906</v>
+      </c>
+      <c r="B69" t="n">
+        <v>76.18490600585938</v>
+      </c>
+      <c r="C69" t="n">
+        <v>58.26840972900391</v>
+      </c>
+      <c r="D69" t="n">
+        <v>92.88512420654297</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="3" t="n">
+        <v>45907</v>
+      </c>
+      <c r="B70" t="n">
+        <v>42.62885665893555</v>
+      </c>
+      <c r="C70" t="n">
+        <v>24.71236038208008</v>
+      </c>
+      <c r="D70" t="n">
+        <v>59.32907485961914</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="3" t="n">
+        <v>45908</v>
+      </c>
+      <c r="B71" t="n">
+        <v>404.8418579101562</v>
+      </c>
+      <c r="C71" t="n">
+        <v>386.9253616333008</v>
+      </c>
+      <c r="D71" t="n">
+        <v>421.5420761108398</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="3" t="n">
+        <v>45909</v>
+      </c>
+      <c r="B72" t="n">
+        <v>365.8026733398438</v>
+      </c>
+      <c r="C72" t="n">
+        <v>347.8861770629883</v>
+      </c>
+      <c r="D72" t="n">
+        <v>382.5028915405273</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="3" t="n">
+        <v>45910</v>
+      </c>
+      <c r="B73" t="n">
+        <v>334.5713806152344</v>
+      </c>
+      <c r="C73" t="n">
+        <v>316.6548843383789</v>
+      </c>
+      <c r="D73" t="n">
+        <v>351.271598815918</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="3" t="n">
+        <v>45911</v>
+      </c>
+      <c r="B74" t="n">
+        <v>316.5308227539062</v>
+      </c>
+      <c r="C74" t="n">
+        <v>298.6143264770508</v>
+      </c>
+      <c r="D74" t="n">
+        <v>333.2310409545898</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="3" t="n">
+        <v>45912</v>
+      </c>
+      <c r="B75" t="n">
+        <v>337.8671264648438</v>
+      </c>
+      <c r="C75" t="n">
+        <v>319.9506301879883</v>
+      </c>
+      <c r="D75" t="n">
+        <v>354.5673446655273</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="3" t="n">
+        <v>45913</v>
+      </c>
+      <c r="B76" t="n">
+        <v>72.58428955078125</v>
+      </c>
+      <c r="C76" t="n">
+        <v>54.66779327392578</v>
+      </c>
+      <c r="D76" t="n">
+        <v>89.28450775146484</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="3" t="n">
+        <v>45914</v>
+      </c>
+      <c r="B77" t="n">
+        <v>8.241007804870605</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0</v>
+      </c>
+      <c r="D77" t="n">
+        <v>24.9412260055542</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="3" t="n">
+        <v>45915</v>
+      </c>
+      <c r="B78" t="n">
+        <v>378.9057006835938</v>
+      </c>
+      <c r="C78" t="n">
+        <v>360.9892044067383</v>
+      </c>
+      <c r="D78" t="n">
+        <v>395.6059188842773</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="3" t="n">
+        <v>45916</v>
+      </c>
+      <c r="B79" t="n">
+        <v>373.8352661132812</v>
+      </c>
+      <c r="C79" t="n">
+        <v>355.9187698364258</v>
+      </c>
+      <c r="D79" t="n">
+        <v>390.5354843139648</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="3" t="n">
+        <v>45917</v>
+      </c>
+      <c r="B80" t="n">
+        <v>374.583740234375</v>
+      </c>
+      <c r="C80" t="n">
+        <v>356.6672439575195</v>
+      </c>
+      <c r="D80" t="n">
+        <v>391.2839584350586</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="3" t="n">
+        <v>45918</v>
+      </c>
+      <c r="B81" t="n">
+        <v>346.286865234375</v>
+      </c>
+      <c r="C81" t="n">
+        <v>328.3703689575195</v>
+      </c>
+      <c r="D81" t="n">
+        <v>362.9870834350586</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="3" t="n">
+        <v>45919</v>
+      </c>
+      <c r="B82" t="n">
+        <v>337.8445434570312</v>
+      </c>
+      <c r="C82" t="n">
+        <v>319.9280471801758</v>
+      </c>
+      <c r="D82" t="n">
+        <v>354.5447616577148</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="3" t="n">
+        <v>45920</v>
+      </c>
+      <c r="B83" t="n">
+        <v>89.23773193359375</v>
+      </c>
+      <c r="C83" t="n">
+        <v>71.32123565673828</v>
+      </c>
+      <c r="D83" t="n">
+        <v>105.9379501342773</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="3" t="n">
+        <v>45921</v>
+      </c>
+      <c r="B84" t="n">
+        <v>12.82729816436768</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0</v>
+      </c>
+      <c r="D84" t="n">
+        <v>29.52751636505127</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="3" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B85" t="n">
+        <v>357.9313354492188</v>
+      </c>
+      <c r="C85" t="n">
+        <v>340.0148391723633</v>
+      </c>
+      <c r="D85" t="n">
+        <v>374.6315536499023</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="3" t="n">
+        <v>45923</v>
+      </c>
+      <c r="B86" t="n">
+        <v>398.3561096191406</v>
+      </c>
+      <c r="C86" t="n">
+        <v>380.4396133422852</v>
+      </c>
+      <c r="D86" t="n">
+        <v>415.0563278198242</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="3" t="n">
+        <v>45924</v>
+      </c>
+      <c r="B87" t="n">
+        <v>343.186279296875</v>
+      </c>
+      <c r="C87" t="n">
+        <v>325.2697830200195</v>
+      </c>
+      <c r="D87" t="n">
+        <v>359.8864974975586</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="3" t="n">
+        <v>45925</v>
+      </c>
+      <c r="B88" t="n">
+        <v>339.6200256347656</v>
+      </c>
+      <c r="C88" t="n">
+        <v>321.7035293579102</v>
+      </c>
+      <c r="D88" t="n">
+        <v>356.3202438354492</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="3" t="n">
+        <v>45926</v>
+      </c>
+      <c r="B89" t="n">
+        <v>318.2340698242188</v>
+      </c>
+      <c r="C89" t="n">
+        <v>300.3175735473633</v>
+      </c>
+      <c r="D89" t="n">
+        <v>334.9342880249023</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="3" t="n">
+        <v>45927</v>
+      </c>
+      <c r="B90" t="n">
+        <v>35.55524063110352</v>
+      </c>
+      <c r="C90" t="n">
+        <v>17.63874435424805</v>
+      </c>
+      <c r="D90" t="n">
+        <v>52.25545883178711</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="3" t="n">
+        <v>45928</v>
+      </c>
+      <c r="B91" t="n">
+        <v>15.29194355010986</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0</v>
+      </c>
+      <c r="D91" t="n">
+        <v>31.99216175079346</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="3" t="n">
+        <v>45929</v>
+      </c>
+      <c r="B92" t="n">
+        <v>382.2900390625</v>
+      </c>
+      <c r="C92" t="n">
+        <v>364.3735427856445</v>
+      </c>
+      <c r="D92" t="n">
+        <v>398.9902572631836</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="3" t="n">
+        <v>45930</v>
+      </c>
+      <c r="B93" t="n">
+        <v>368.281005859375</v>
+      </c>
+      <c r="C93" t="n">
+        <v>350.3645095825195</v>
+      </c>
+      <c r="D93" t="n">
+        <v>384.9812240600586</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="3" t="n">
+        <v>45931</v>
+      </c>
+      <c r="B94" t="n">
+        <v>320.8880920410156</v>
+      </c>
+      <c r="C94" t="n">
+        <v>302.9715957641602</v>
+      </c>
+      <c r="D94" t="n">
+        <v>337.5883102416992</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="3" t="n">
+        <v>45932</v>
+      </c>
+      <c r="B95" t="n">
+        <v>335.3858947753906</v>
+      </c>
+      <c r="C95" t="n">
+        <v>317.4693984985352</v>
+      </c>
+      <c r="D95" t="n">
+        <v>352.0861129760742</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="3" t="n">
+        <v>45933</v>
+      </c>
+      <c r="B96" t="n">
+        <v>296.6293640136719</v>
+      </c>
+      <c r="C96" t="n">
+        <v>278.7128677368164</v>
+      </c>
+      <c r="D96" t="n">
+        <v>313.3295822143555</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="3" t="n">
+        <v>45934</v>
+      </c>
+      <c r="B97" t="n">
+        <v>37.2004508972168</v>
+      </c>
+      <c r="C97" t="n">
+        <v>19.28395462036133</v>
+      </c>
+      <c r="D97" t="n">
+        <v>53.90066909790039</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="3" t="n">
+        <v>45935</v>
+      </c>
+      <c r="B98" t="n">
+        <v>13.21907329559326</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0</v>
+      </c>
+      <c r="D98" t="n">
+        <v>29.91929149627686</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="3" t="n">
+        <v>45936</v>
+      </c>
+      <c r="B99" t="n">
+        <v>457.0668640136719</v>
+      </c>
+      <c r="C99" t="n">
+        <v>439.1503677368164</v>
+      </c>
+      <c r="D99" t="n">
+        <v>473.7670822143555</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="3" t="n">
+        <v>45937</v>
+      </c>
+      <c r="B100" t="n">
+        <v>375.4784851074219</v>
+      </c>
+      <c r="C100" t="n">
+        <v>357.5619888305664</v>
+      </c>
+      <c r="D100" t="n">
+        <v>392.1787033081055</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="3" t="n">
+        <v>45938</v>
+      </c>
+      <c r="B101" t="n">
+        <v>297.7748718261719</v>
+      </c>
+      <c r="C101" t="n">
+        <v>279.8583755493164</v>
+      </c>
+      <c r="D101" t="n">
+        <v>314.4750900268555</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="3" t="n">
+        <v>45939</v>
+      </c>
+      <c r="B102" t="n">
+        <v>291.3799438476562</v>
+      </c>
+      <c r="C102" t="n">
+        <v>273.4634475708008</v>
+      </c>
+      <c r="D102" t="n">
+        <v>308.0801620483398</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="3" t="n">
+        <v>45940</v>
+      </c>
+      <c r="B103" t="n">
+        <v>297.2422180175781</v>
+      </c>
+      <c r="C103" t="n">
+        <v>279.3257217407227</v>
+      </c>
+      <c r="D103" t="n">
+        <v>313.9424362182617</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="3" t="n">
+        <v>45941</v>
+      </c>
+      <c r="B104" t="n">
+        <v>25.03126525878906</v>
+      </c>
+      <c r="C104" t="n">
+        <v>7.114768981933594</v>
+      </c>
+      <c r="D104" t="n">
+        <v>41.73148345947266</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="3" t="n">
+        <v>45942</v>
+      </c>
+      <c r="B105" t="n">
+        <v>7.905671119689941</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0</v>
+      </c>
+      <c r="D105" t="n">
+        <v>24.60588932037354</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="3" t="n">
+        <v>45943</v>
+      </c>
+      <c r="B106" t="n">
+        <v>322.0642395019531</v>
+      </c>
+      <c r="C106" t="n">
+        <v>304.1477432250977</v>
+      </c>
+      <c r="D106" t="n">
+        <v>338.7644577026367</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="3" t="n">
+        <v>45944</v>
+      </c>
+      <c r="B107" t="n">
+        <v>281.0314331054688</v>
+      </c>
+      <c r="C107" t="n">
+        <v>263.1149368286133</v>
+      </c>
+      <c r="D107" t="n">
+        <v>297.7316513061523</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="3" t="n">
+        <v>45945</v>
+      </c>
+      <c r="B108" t="n">
+        <v>326.7942199707031</v>
+      </c>
+      <c r="C108" t="n">
+        <v>308.8777236938477</v>
+      </c>
+      <c r="D108" t="n">
+        <v>343.4944381713867</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="3" t="n">
+        <v>45946</v>
+      </c>
+      <c r="B109" t="n">
+        <v>327.0903625488281</v>
+      </c>
+      <c r="C109" t="n">
+        <v>309.1738662719727</v>
+      </c>
+      <c r="D109" t="n">
+        <v>343.7905807495117</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="3" t="n">
+        <v>45947</v>
+      </c>
+      <c r="B110" t="n">
+        <v>318.6412658691406</v>
+      </c>
+      <c r="C110" t="n">
+        <v>300.7247695922852</v>
+      </c>
+      <c r="D110" t="n">
+        <v>335.3414840698242</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="3" t="n">
+        <v>45948</v>
+      </c>
+      <c r="B111" t="n">
+        <v>72.86342620849609</v>
+      </c>
+      <c r="C111" t="n">
+        <v>54.94692993164062</v>
+      </c>
+      <c r="D111" t="n">
+        <v>89.56364440917969</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="3" t="n">
+        <v>45949</v>
+      </c>
+      <c r="B112" t="n">
+        <v>20.66006278991699</v>
+      </c>
+      <c r="C112" t="n">
+        <v>2.743566513061523</v>
+      </c>
+      <c r="D112" t="n">
+        <v>37.36028099060059</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="3" t="n">
+        <v>45950</v>
+      </c>
+      <c r="B113" t="n">
+        <v>401.1106872558594</v>
+      </c>
+      <c r="C113" t="n">
+        <v>383.1941909790039</v>
+      </c>
+      <c r="D113" t="n">
+        <v>417.810905456543</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="3" t="n">
+        <v>45951</v>
+      </c>
+      <c r="B114" t="n">
+        <v>400.8689270019531</v>
+      </c>
+      <c r="C114" t="n">
+        <v>382.9524307250977</v>
+      </c>
+      <c r="D114" t="n">
+        <v>417.5691452026367</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="3" t="n">
+        <v>45952</v>
+      </c>
+      <c r="B115" t="n">
+        <v>386.6148986816406</v>
+      </c>
+      <c r="C115" t="n">
+        <v>368.6984024047852</v>
+      </c>
+      <c r="D115" t="n">
+        <v>403.3151168823242</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="3" t="n">
+        <v>45953</v>
+      </c>
+      <c r="B116" t="n">
+        <v>379.8883666992188</v>
+      </c>
+      <c r="C116" t="n">
+        <v>361.9718704223633</v>
+      </c>
+      <c r="D116" t="n">
+        <v>396.5885848999023</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="3" t="n">
+        <v>45954</v>
+      </c>
+      <c r="B117" t="n">
+        <v>349.3865661621094</v>
+      </c>
+      <c r="C117" t="n">
+        <v>331.4700698852539</v>
+      </c>
+      <c r="D117" t="n">
+        <v>366.086784362793</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="3" t="n">
+        <v>45955</v>
+      </c>
+      <c r="B118" t="n">
+        <v>70.46220397949219</v>
+      </c>
+      <c r="C118" t="n">
+        <v>52.54570770263672</v>
+      </c>
+      <c r="D118" t="n">
+        <v>87.16242218017578</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="3" t="n">
+        <v>45956</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0</v>
+      </c>
+      <c r="D119" t="n">
+        <v>16.70021820068359</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="3" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B120" t="n">
+        <v>375.8586120605469</v>
+      </c>
+      <c r="C120" t="n">
+        <v>357.9421157836914</v>
+      </c>
+      <c r="D120" t="n">
+        <v>392.5588302612305</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="3" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B121" t="n">
+        <v>313.9152221679688</v>
+      </c>
+      <c r="C121" t="n">
+        <v>295.9987258911133</v>
+      </c>
+      <c r="D121" t="n">
+        <v>330.6154403686523</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="3" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B122" t="n">
+        <v>347.8758239746094</v>
+      </c>
+      <c r="C122" t="n">
+        <v>329.9593276977539</v>
+      </c>
+      <c r="D122" t="n">
+        <v>364.576042175293</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="3" t="n">
+        <v>45960</v>
+      </c>
+      <c r="B123" t="n">
+        <v>306.9000244140625</v>
+      </c>
+      <c r="C123" t="n">
+        <v>288.983528137207</v>
+      </c>
+      <c r="D123" t="n">
+        <v>323.6002426147461</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="3" t="n">
+        <v>45961</v>
+      </c>
+      <c r="B124" t="n">
+        <v>314.6671142578125</v>
+      </c>
+      <c r="C124" t="n">
+        <v>296.750617980957</v>
+      </c>
+      <c r="D124" t="n">
+        <v>331.3673324584961</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1546,7 +2400,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D63"/>
+  <dimension ref="A1:D124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2444,6 +3298,860 @@
         <v>278.1595184326172</v>
       </c>
     </row>
+    <row r="64">
+      <c r="A64" s="3" t="n">
+        <v>45901</v>
+      </c>
+      <c r="B64" t="n">
+        <v>3496.840576171875</v>
+      </c>
+      <c r="C64" t="n">
+        <v>3401.527645874024</v>
+      </c>
+      <c r="D64" t="n">
+        <v>3596.76640625</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="3" t="n">
+        <v>45902</v>
+      </c>
+      <c r="B65" t="n">
+        <v>3498.976806640625</v>
+      </c>
+      <c r="C65" t="n">
+        <v>3403.663876342774</v>
+      </c>
+      <c r="D65" t="n">
+        <v>3598.90263671875</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="3" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B66" t="n">
+        <v>4068.706298828125</v>
+      </c>
+      <c r="C66" t="n">
+        <v>3973.393368530274</v>
+      </c>
+      <c r="D66" t="n">
+        <v>4168.63212890625</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="3" t="n">
+        <v>45904</v>
+      </c>
+      <c r="B67" t="n">
+        <v>3401.303955078125</v>
+      </c>
+      <c r="C67" t="n">
+        <v>3305.991024780274</v>
+      </c>
+      <c r="D67" t="n">
+        <v>3501.22978515625</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="3" t="n">
+        <v>45905</v>
+      </c>
+      <c r="B68" t="n">
+        <v>3556.949462890625</v>
+      </c>
+      <c r="C68" t="n">
+        <v>3461.636532592774</v>
+      </c>
+      <c r="D68" t="n">
+        <v>3656.87529296875</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="3" t="n">
+        <v>45906</v>
+      </c>
+      <c r="B69" t="n">
+        <v>127.3430557250977</v>
+      </c>
+      <c r="C69" t="n">
+        <v>32.03012542724609</v>
+      </c>
+      <c r="D69" t="n">
+        <v>227.2688858032226</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="3" t="n">
+        <v>45907</v>
+      </c>
+      <c r="B70" t="n">
+        <v>346.4490661621094</v>
+      </c>
+      <c r="C70" t="n">
+        <v>251.1361358642578</v>
+      </c>
+      <c r="D70" t="n">
+        <v>446.3748962402344</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="3" t="n">
+        <v>45908</v>
+      </c>
+      <c r="B71" t="n">
+        <v>3646.439453125</v>
+      </c>
+      <c r="C71" t="n">
+        <v>3551.126522827149</v>
+      </c>
+      <c r="D71" t="n">
+        <v>3746.365283203125</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="3" t="n">
+        <v>45909</v>
+      </c>
+      <c r="B72" t="n">
+        <v>3794.221435546875</v>
+      </c>
+      <c r="C72" t="n">
+        <v>3698.908505249024</v>
+      </c>
+      <c r="D72" t="n">
+        <v>3894.147265625</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="3" t="n">
+        <v>45910</v>
+      </c>
+      <c r="B73" t="n">
+        <v>4355.77734375</v>
+      </c>
+      <c r="C73" t="n">
+        <v>4260.464413452149</v>
+      </c>
+      <c r="D73" t="n">
+        <v>4455.703173828125</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="3" t="n">
+        <v>45911</v>
+      </c>
+      <c r="B74" t="n">
+        <v>3629.05224609375</v>
+      </c>
+      <c r="C74" t="n">
+        <v>3533.739315795899</v>
+      </c>
+      <c r="D74" t="n">
+        <v>3728.978076171875</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="3" t="n">
+        <v>45912</v>
+      </c>
+      <c r="B75" t="n">
+        <v>3591.162353515625</v>
+      </c>
+      <c r="C75" t="n">
+        <v>3495.849423217774</v>
+      </c>
+      <c r="D75" t="n">
+        <v>3691.08818359375</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="3" t="n">
+        <v>45913</v>
+      </c>
+      <c r="B76" t="n">
+        <v>346.1498413085938</v>
+      </c>
+      <c r="C76" t="n">
+        <v>250.8369110107422</v>
+      </c>
+      <c r="D76" t="n">
+        <v>446.0756713867187</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="3" t="n">
+        <v>45914</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0</v>
+      </c>
+      <c r="D77" t="n">
+        <v>99.92583007812499</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="3" t="n">
+        <v>45915</v>
+      </c>
+      <c r="B78" t="n">
+        <v>3704.0517578125</v>
+      </c>
+      <c r="C78" t="n">
+        <v>3608.738827514649</v>
+      </c>
+      <c r="D78" t="n">
+        <v>3803.977587890625</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="3" t="n">
+        <v>45916</v>
+      </c>
+      <c r="B79" t="n">
+        <v>3720.466552734375</v>
+      </c>
+      <c r="C79" t="n">
+        <v>3625.153622436524</v>
+      </c>
+      <c r="D79" t="n">
+        <v>3820.3923828125</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="3" t="n">
+        <v>45917</v>
+      </c>
+      <c r="B80" t="n">
+        <v>4105.67431640625</v>
+      </c>
+      <c r="C80" t="n">
+        <v>4010.361386108399</v>
+      </c>
+      <c r="D80" t="n">
+        <v>4205.600146484375</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="3" t="n">
+        <v>45918</v>
+      </c>
+      <c r="B81" t="n">
+        <v>3699.9619140625</v>
+      </c>
+      <c r="C81" t="n">
+        <v>3604.648983764649</v>
+      </c>
+      <c r="D81" t="n">
+        <v>3799.887744140625</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="3" t="n">
+        <v>45919</v>
+      </c>
+      <c r="B82" t="n">
+        <v>3748.818115234375</v>
+      </c>
+      <c r="C82" t="n">
+        <v>3653.505184936524</v>
+      </c>
+      <c r="D82" t="n">
+        <v>3848.7439453125</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="3" t="n">
+        <v>45920</v>
+      </c>
+      <c r="B83" t="n">
+        <v>120.1272888183594</v>
+      </c>
+      <c r="C83" t="n">
+        <v>24.81435852050781</v>
+      </c>
+      <c r="D83" t="n">
+        <v>220.0531188964844</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="3" t="n">
+        <v>45921</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0</v>
+      </c>
+      <c r="D84" t="n">
+        <v>99.92583007812499</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="3" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B85" t="n">
+        <v>3882.256103515625</v>
+      </c>
+      <c r="C85" t="n">
+        <v>3786.943173217774</v>
+      </c>
+      <c r="D85" t="n">
+        <v>3982.18193359375</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="3" t="n">
+        <v>45923</v>
+      </c>
+      <c r="B86" t="n">
+        <v>3599.13330078125</v>
+      </c>
+      <c r="C86" t="n">
+        <v>3503.820370483399</v>
+      </c>
+      <c r="D86" t="n">
+        <v>3699.059130859375</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="3" t="n">
+        <v>45924</v>
+      </c>
+      <c r="B87" t="n">
+        <v>3578.94482421875</v>
+      </c>
+      <c r="C87" t="n">
+        <v>3483.631893920899</v>
+      </c>
+      <c r="D87" t="n">
+        <v>3678.870654296875</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="3" t="n">
+        <v>45925</v>
+      </c>
+      <c r="B88" t="n">
+        <v>3368.560791015625</v>
+      </c>
+      <c r="C88" t="n">
+        <v>3273.247860717774</v>
+      </c>
+      <c r="D88" t="n">
+        <v>3468.48662109375</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="3" t="n">
+        <v>45926</v>
+      </c>
+      <c r="B89" t="n">
+        <v>3673.005126953125</v>
+      </c>
+      <c r="C89" t="n">
+        <v>3577.692196655274</v>
+      </c>
+      <c r="D89" t="n">
+        <v>3772.93095703125</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="3" t="n">
+        <v>45927</v>
+      </c>
+      <c r="B90" t="n">
+        <v>608.6212768554688</v>
+      </c>
+      <c r="C90" t="n">
+        <v>513.3083465576171</v>
+      </c>
+      <c r="D90" t="n">
+        <v>708.5471069335938</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="3" t="n">
+        <v>45928</v>
+      </c>
+      <c r="B91" t="n">
+        <v>359.3448181152344</v>
+      </c>
+      <c r="C91" t="n">
+        <v>264.0318878173828</v>
+      </c>
+      <c r="D91" t="n">
+        <v>459.2706481933594</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="3" t="n">
+        <v>45929</v>
+      </c>
+      <c r="B92" t="n">
+        <v>4932.884765625</v>
+      </c>
+      <c r="C92" t="n">
+        <v>4837.571835327149</v>
+      </c>
+      <c r="D92" t="n">
+        <v>5032.810595703125</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="3" t="n">
+        <v>45930</v>
+      </c>
+      <c r="B93" t="n">
+        <v>5199.82080078125</v>
+      </c>
+      <c r="C93" t="n">
+        <v>5104.507870483399</v>
+      </c>
+      <c r="D93" t="n">
+        <v>5299.746630859375</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="3" t="n">
+        <v>45931</v>
+      </c>
+      <c r="B94" t="n">
+        <v>5100.75146484375</v>
+      </c>
+      <c r="C94" t="n">
+        <v>5005.438534545899</v>
+      </c>
+      <c r="D94" t="n">
+        <v>5200.677294921875</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="3" t="n">
+        <v>45932</v>
+      </c>
+      <c r="B95" t="n">
+        <v>5023.498046875</v>
+      </c>
+      <c r="C95" t="n">
+        <v>4928.185116577149</v>
+      </c>
+      <c r="D95" t="n">
+        <v>5123.423876953125</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="3" t="n">
+        <v>45933</v>
+      </c>
+      <c r="B96" t="n">
+        <v>5310.421875</v>
+      </c>
+      <c r="C96" t="n">
+        <v>5215.108944702149</v>
+      </c>
+      <c r="D96" t="n">
+        <v>5410.347705078125</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="3" t="n">
+        <v>45934</v>
+      </c>
+      <c r="B97" t="n">
+        <v>977.8564453125</v>
+      </c>
+      <c r="C97" t="n">
+        <v>882.5435150146484</v>
+      </c>
+      <c r="D97" t="n">
+        <v>1077.782275390625</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="3" t="n">
+        <v>45935</v>
+      </c>
+      <c r="B98" t="n">
+        <v>349.1423645019531</v>
+      </c>
+      <c r="C98" t="n">
+        <v>253.8294342041016</v>
+      </c>
+      <c r="D98" t="n">
+        <v>449.0681945800781</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="3" t="n">
+        <v>45936</v>
+      </c>
+      <c r="B99" t="n">
+        <v>5561.25537109375</v>
+      </c>
+      <c r="C99" t="n">
+        <v>5465.942440795899</v>
+      </c>
+      <c r="D99" t="n">
+        <v>5661.181201171875</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="3" t="n">
+        <v>45937</v>
+      </c>
+      <c r="B100" t="n">
+        <v>5744.1728515625</v>
+      </c>
+      <c r="C100" t="n">
+        <v>5648.859921264649</v>
+      </c>
+      <c r="D100" t="n">
+        <v>5844.098681640625</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="3" t="n">
+        <v>45938</v>
+      </c>
+      <c r="B101" t="n">
+        <v>5972.9638671875</v>
+      </c>
+      <c r="C101" t="n">
+        <v>5877.650936889649</v>
+      </c>
+      <c r="D101" t="n">
+        <v>6072.889697265625</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="3" t="n">
+        <v>45939</v>
+      </c>
+      <c r="B102" t="n">
+        <v>5552.34326171875</v>
+      </c>
+      <c r="C102" t="n">
+        <v>5457.030331420899</v>
+      </c>
+      <c r="D102" t="n">
+        <v>5652.269091796875</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="3" t="n">
+        <v>45940</v>
+      </c>
+      <c r="B103" t="n">
+        <v>5053.220703125</v>
+      </c>
+      <c r="C103" t="n">
+        <v>4957.907772827149</v>
+      </c>
+      <c r="D103" t="n">
+        <v>5153.146533203125</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="3" t="n">
+        <v>45941</v>
+      </c>
+      <c r="B104" t="n">
+        <v>969.2141723632812</v>
+      </c>
+      <c r="C104" t="n">
+        <v>873.9012420654296</v>
+      </c>
+      <c r="D104" t="n">
+        <v>1069.140002441406</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="3" t="n">
+        <v>45942</v>
+      </c>
+      <c r="B105" t="n">
+        <v>324.3280029296875</v>
+      </c>
+      <c r="C105" t="n">
+        <v>229.0150726318359</v>
+      </c>
+      <c r="D105" t="n">
+        <v>424.2538330078125</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="3" t="n">
+        <v>45943</v>
+      </c>
+      <c r="B106" t="n">
+        <v>5377.45556640625</v>
+      </c>
+      <c r="C106" t="n">
+        <v>5282.142636108399</v>
+      </c>
+      <c r="D106" t="n">
+        <v>5477.381396484375</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="3" t="n">
+        <v>45944</v>
+      </c>
+      <c r="B107" t="n">
+        <v>5329.74658203125</v>
+      </c>
+      <c r="C107" t="n">
+        <v>5234.433651733399</v>
+      </c>
+      <c r="D107" t="n">
+        <v>5429.672412109375</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="3" t="n">
+        <v>45945</v>
+      </c>
+      <c r="B108" t="n">
+        <v>5615.74853515625</v>
+      </c>
+      <c r="C108" t="n">
+        <v>5520.435604858399</v>
+      </c>
+      <c r="D108" t="n">
+        <v>5715.674365234375</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="3" t="n">
+        <v>45946</v>
+      </c>
+      <c r="B109" t="n">
+        <v>5543.93408203125</v>
+      </c>
+      <c r="C109" t="n">
+        <v>5448.621151733399</v>
+      </c>
+      <c r="D109" t="n">
+        <v>5643.859912109375</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="3" t="n">
+        <v>45947</v>
+      </c>
+      <c r="B110" t="n">
+        <v>5437.181640625</v>
+      </c>
+      <c r="C110" t="n">
+        <v>5341.868710327149</v>
+      </c>
+      <c r="D110" t="n">
+        <v>5537.107470703125</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="3" t="n">
+        <v>45948</v>
+      </c>
+      <c r="B111" t="n">
+        <v>927.9414672851562</v>
+      </c>
+      <c r="C111" t="n">
+        <v>832.6285369873046</v>
+      </c>
+      <c r="D111" t="n">
+        <v>1027.867297363281</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="3" t="n">
+        <v>45949</v>
+      </c>
+      <c r="B112" t="n">
+        <v>411.6255493164062</v>
+      </c>
+      <c r="C112" t="n">
+        <v>316.3126190185547</v>
+      </c>
+      <c r="D112" t="n">
+        <v>511.5513793945312</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="3" t="n">
+        <v>45950</v>
+      </c>
+      <c r="B113" t="n">
+        <v>5393.30908203125</v>
+      </c>
+      <c r="C113" t="n">
+        <v>5297.996151733399</v>
+      </c>
+      <c r="D113" t="n">
+        <v>5493.234912109375</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="3" t="n">
+        <v>45951</v>
+      </c>
+      <c r="B114" t="n">
+        <v>5433.40576171875</v>
+      </c>
+      <c r="C114" t="n">
+        <v>5338.092831420899</v>
+      </c>
+      <c r="D114" t="n">
+        <v>5533.331591796875</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="3" t="n">
+        <v>45952</v>
+      </c>
+      <c r="B115" t="n">
+        <v>5616.60302734375</v>
+      </c>
+      <c r="C115" t="n">
+        <v>5521.290097045899</v>
+      </c>
+      <c r="D115" t="n">
+        <v>5716.528857421875</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="3" t="n">
+        <v>45953</v>
+      </c>
+      <c r="B116" t="n">
+        <v>5391.32080078125</v>
+      </c>
+      <c r="C116" t="n">
+        <v>5296.007870483399</v>
+      </c>
+      <c r="D116" t="n">
+        <v>5491.246630859375</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="3" t="n">
+        <v>45954</v>
+      </c>
+      <c r="B117" t="n">
+        <v>5173.55029296875</v>
+      </c>
+      <c r="C117" t="n">
+        <v>5078.237362670899</v>
+      </c>
+      <c r="D117" t="n">
+        <v>5273.476123046875</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="3" t="n">
+        <v>45955</v>
+      </c>
+      <c r="B118" t="n">
+        <v>884.5347290039062</v>
+      </c>
+      <c r="C118" t="n">
+        <v>789.2217987060546</v>
+      </c>
+      <c r="D118" t="n">
+        <v>984.4605590820313</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="3" t="n">
+        <v>45956</v>
+      </c>
+      <c r="B119" t="n">
+        <v>4.641477584838867</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0</v>
+      </c>
+      <c r="D119" t="n">
+        <v>104.5673076629639</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="3" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B120" t="n">
+        <v>5808.767578125</v>
+      </c>
+      <c r="C120" t="n">
+        <v>5713.454647827149</v>
+      </c>
+      <c r="D120" t="n">
+        <v>5908.693408203125</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="3" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B121" t="n">
+        <v>5656.75048828125</v>
+      </c>
+      <c r="C121" t="n">
+        <v>5561.437557983399</v>
+      </c>
+      <c r="D121" t="n">
+        <v>5756.676318359375</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="3" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B122" t="n">
+        <v>5732.06103515625</v>
+      </c>
+      <c r="C122" t="n">
+        <v>5636.748104858399</v>
+      </c>
+      <c r="D122" t="n">
+        <v>5831.986865234375</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="3" t="n">
+        <v>45960</v>
+      </c>
+      <c r="B123" t="n">
+        <v>5603.853515625</v>
+      </c>
+      <c r="C123" t="n">
+        <v>5508.540585327149</v>
+      </c>
+      <c r="D123" t="n">
+        <v>5703.779345703125</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="3" t="n">
+        <v>45961</v>
+      </c>
+      <c r="B124" t="n">
+        <v>5372.83251953125</v>
+      </c>
+      <c r="C124" t="n">
+        <v>5277.519589233399</v>
+      </c>
+      <c r="D124" t="n">
+        <v>5472.758349609375</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2455,7 +4163,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D63"/>
+  <dimension ref="A1:D124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3353,6 +5061,860 @@
         <v>150.9271514892578</v>
       </c>
     </row>
+    <row r="64">
+      <c r="A64" s="3" t="n">
+        <v>45901</v>
+      </c>
+      <c r="B64" t="n">
+        <v>669.2597045898438</v>
+      </c>
+      <c r="C64" t="n">
+        <v>649.2198043823242</v>
+      </c>
+      <c r="D64" t="n">
+        <v>690.2354248046875</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="3" t="n">
+        <v>45902</v>
+      </c>
+      <c r="B65" t="n">
+        <v>798.0072631835938</v>
+      </c>
+      <c r="C65" t="n">
+        <v>777.9673629760742</v>
+      </c>
+      <c r="D65" t="n">
+        <v>818.9829833984375</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="3" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B66" t="n">
+        <v>773.1591186523438</v>
+      </c>
+      <c r="C66" t="n">
+        <v>753.1192184448242</v>
+      </c>
+      <c r="D66" t="n">
+        <v>794.1348388671875</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="3" t="n">
+        <v>45904</v>
+      </c>
+      <c r="B67" t="n">
+        <v>790.2249755859375</v>
+      </c>
+      <c r="C67" t="n">
+        <v>770.185075378418</v>
+      </c>
+      <c r="D67" t="n">
+        <v>811.2006958007812</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="3" t="n">
+        <v>45905</v>
+      </c>
+      <c r="B68" t="n">
+        <v>741.775634765625</v>
+      </c>
+      <c r="C68" t="n">
+        <v>721.7357345581055</v>
+      </c>
+      <c r="D68" t="n">
+        <v>762.7513549804687</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="3" t="n">
+        <v>45906</v>
+      </c>
+      <c r="B69" t="n">
+        <v>278.3085021972656</v>
+      </c>
+      <c r="C69" t="n">
+        <v>258.2686019897461</v>
+      </c>
+      <c r="D69" t="n">
+        <v>299.2842224121093</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="3" t="n">
+        <v>45907</v>
+      </c>
+      <c r="B70" t="n">
+        <v>71.62616729736328</v>
+      </c>
+      <c r="C70" t="n">
+        <v>51.58626708984375</v>
+      </c>
+      <c r="D70" t="n">
+        <v>92.601887512207</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="3" t="n">
+        <v>45908</v>
+      </c>
+      <c r="B71" t="n">
+        <v>714.7730102539062</v>
+      </c>
+      <c r="C71" t="n">
+        <v>694.7331100463867</v>
+      </c>
+      <c r="D71" t="n">
+        <v>735.74873046875</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="3" t="n">
+        <v>45909</v>
+      </c>
+      <c r="B72" t="n">
+        <v>776.5298461914062</v>
+      </c>
+      <c r="C72" t="n">
+        <v>756.4899459838867</v>
+      </c>
+      <c r="D72" t="n">
+        <v>797.50556640625</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="3" t="n">
+        <v>45910</v>
+      </c>
+      <c r="B73" t="n">
+        <v>797.595703125</v>
+      </c>
+      <c r="C73" t="n">
+        <v>777.5558029174805</v>
+      </c>
+      <c r="D73" t="n">
+        <v>818.5714233398437</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="3" t="n">
+        <v>45911</v>
+      </c>
+      <c r="B74" t="n">
+        <v>836.1373291015625</v>
+      </c>
+      <c r="C74" t="n">
+        <v>816.097428894043</v>
+      </c>
+      <c r="D74" t="n">
+        <v>857.1130493164062</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="3" t="n">
+        <v>45912</v>
+      </c>
+      <c r="B75" t="n">
+        <v>807.6126098632812</v>
+      </c>
+      <c r="C75" t="n">
+        <v>787.5727096557617</v>
+      </c>
+      <c r="D75" t="n">
+        <v>828.588330078125</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="3" t="n">
+        <v>45913</v>
+      </c>
+      <c r="B76" t="n">
+        <v>327.4770202636719</v>
+      </c>
+      <c r="C76" t="n">
+        <v>307.4371200561524</v>
+      </c>
+      <c r="D76" t="n">
+        <v>348.4527404785156</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="3" t="n">
+        <v>45914</v>
+      </c>
+      <c r="B77" t="n">
+        <v>154.3191375732422</v>
+      </c>
+      <c r="C77" t="n">
+        <v>134.2792373657227</v>
+      </c>
+      <c r="D77" t="n">
+        <v>175.2948577880859</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="3" t="n">
+        <v>45915</v>
+      </c>
+      <c r="B78" t="n">
+        <v>776.1610717773438</v>
+      </c>
+      <c r="C78" t="n">
+        <v>756.1211715698242</v>
+      </c>
+      <c r="D78" t="n">
+        <v>797.1367919921875</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="3" t="n">
+        <v>45916</v>
+      </c>
+      <c r="B79" t="n">
+        <v>871.1303100585938</v>
+      </c>
+      <c r="C79" t="n">
+        <v>851.0904098510742</v>
+      </c>
+      <c r="D79" t="n">
+        <v>892.1060302734375</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="3" t="n">
+        <v>45917</v>
+      </c>
+      <c r="B80" t="n">
+        <v>826.1534423828125</v>
+      </c>
+      <c r="C80" t="n">
+        <v>806.113542175293</v>
+      </c>
+      <c r="D80" t="n">
+        <v>847.1291625976562</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="3" t="n">
+        <v>45918</v>
+      </c>
+      <c r="B81" t="n">
+        <v>880.6455078125</v>
+      </c>
+      <c r="C81" t="n">
+        <v>860.6056076049805</v>
+      </c>
+      <c r="D81" t="n">
+        <v>901.6212280273437</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="3" t="n">
+        <v>45919</v>
+      </c>
+      <c r="B82" t="n">
+        <v>902.2091674804688</v>
+      </c>
+      <c r="C82" t="n">
+        <v>882.1692672729492</v>
+      </c>
+      <c r="D82" t="n">
+        <v>923.1848876953125</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="3" t="n">
+        <v>45920</v>
+      </c>
+      <c r="B83" t="n">
+        <v>428.8705444335938</v>
+      </c>
+      <c r="C83" t="n">
+        <v>408.8306442260742</v>
+      </c>
+      <c r="D83" t="n">
+        <v>449.8462646484375</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="3" t="n">
+        <v>45921</v>
+      </c>
+      <c r="B84" t="n">
+        <v>177.6049499511719</v>
+      </c>
+      <c r="C84" t="n">
+        <v>157.5650497436523</v>
+      </c>
+      <c r="D84" t="n">
+        <v>198.5806701660156</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="3" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B85" t="n">
+        <v>791.218994140625</v>
+      </c>
+      <c r="C85" t="n">
+        <v>771.1790939331055</v>
+      </c>
+      <c r="D85" t="n">
+        <v>812.1947143554687</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="3" t="n">
+        <v>45923</v>
+      </c>
+      <c r="B86" t="n">
+        <v>806.0318603515625</v>
+      </c>
+      <c r="C86" t="n">
+        <v>785.991960144043</v>
+      </c>
+      <c r="D86" t="n">
+        <v>827.0075805664062</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="3" t="n">
+        <v>45924</v>
+      </c>
+      <c r="B87" t="n">
+        <v>845.3037109375</v>
+      </c>
+      <c r="C87" t="n">
+        <v>825.2638107299805</v>
+      </c>
+      <c r="D87" t="n">
+        <v>866.2794311523437</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="3" t="n">
+        <v>45925</v>
+      </c>
+      <c r="B88" t="n">
+        <v>764.901123046875</v>
+      </c>
+      <c r="C88" t="n">
+        <v>744.8612228393555</v>
+      </c>
+      <c r="D88" t="n">
+        <v>785.8768432617187</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="3" t="n">
+        <v>45926</v>
+      </c>
+      <c r="B89" t="n">
+        <v>730.03125</v>
+      </c>
+      <c r="C89" t="n">
+        <v>709.9913497924805</v>
+      </c>
+      <c r="D89" t="n">
+        <v>751.0069702148437</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="3" t="n">
+        <v>45927</v>
+      </c>
+      <c r="B90" t="n">
+        <v>328.7599487304688</v>
+      </c>
+      <c r="C90" t="n">
+        <v>308.7200485229492</v>
+      </c>
+      <c r="D90" t="n">
+        <v>349.7356689453125</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="3" t="n">
+        <v>45928</v>
+      </c>
+      <c r="B91" t="n">
+        <v>262.7458190917969</v>
+      </c>
+      <c r="C91" t="n">
+        <v>242.7059188842773</v>
+      </c>
+      <c r="D91" t="n">
+        <v>283.7215393066406</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="3" t="n">
+        <v>45929</v>
+      </c>
+      <c r="B92" t="n">
+        <v>863.7572021484375</v>
+      </c>
+      <c r="C92" t="n">
+        <v>843.717301940918</v>
+      </c>
+      <c r="D92" t="n">
+        <v>884.7329223632812</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="3" t="n">
+        <v>45930</v>
+      </c>
+      <c r="B93" t="n">
+        <v>752.9422607421875</v>
+      </c>
+      <c r="C93" t="n">
+        <v>732.902360534668</v>
+      </c>
+      <c r="D93" t="n">
+        <v>773.9179809570312</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="3" t="n">
+        <v>45931</v>
+      </c>
+      <c r="B94" t="n">
+        <v>735.7720947265625</v>
+      </c>
+      <c r="C94" t="n">
+        <v>715.732194519043</v>
+      </c>
+      <c r="D94" t="n">
+        <v>756.7478149414062</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="3" t="n">
+        <v>45932</v>
+      </c>
+      <c r="B95" t="n">
+        <v>798.3709106445312</v>
+      </c>
+      <c r="C95" t="n">
+        <v>778.3310104370117</v>
+      </c>
+      <c r="D95" t="n">
+        <v>819.346630859375</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="3" t="n">
+        <v>45933</v>
+      </c>
+      <c r="B96" t="n">
+        <v>787.0054321289062</v>
+      </c>
+      <c r="C96" t="n">
+        <v>766.9655319213867</v>
+      </c>
+      <c r="D96" t="n">
+        <v>807.98115234375</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="3" t="n">
+        <v>45934</v>
+      </c>
+      <c r="B97" t="n">
+        <v>308.7508239746094</v>
+      </c>
+      <c r="C97" t="n">
+        <v>288.7109237670899</v>
+      </c>
+      <c r="D97" t="n">
+        <v>329.7265441894531</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="3" t="n">
+        <v>45935</v>
+      </c>
+      <c r="B98" t="n">
+        <v>159.2376556396484</v>
+      </c>
+      <c r="C98" t="n">
+        <v>139.1977554321289</v>
+      </c>
+      <c r="D98" t="n">
+        <v>180.2133758544921</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="3" t="n">
+        <v>45936</v>
+      </c>
+      <c r="B99" t="n">
+        <v>757.6450805664062</v>
+      </c>
+      <c r="C99" t="n">
+        <v>737.6051803588867</v>
+      </c>
+      <c r="D99" t="n">
+        <v>778.62080078125</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="3" t="n">
+        <v>45937</v>
+      </c>
+      <c r="B100" t="n">
+        <v>849.5619506835938</v>
+      </c>
+      <c r="C100" t="n">
+        <v>829.5220504760742</v>
+      </c>
+      <c r="D100" t="n">
+        <v>870.5376708984375</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="3" t="n">
+        <v>45938</v>
+      </c>
+      <c r="B101" t="n">
+        <v>827.1620483398438</v>
+      </c>
+      <c r="C101" t="n">
+        <v>807.1221481323242</v>
+      </c>
+      <c r="D101" t="n">
+        <v>848.1377685546875</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="3" t="n">
+        <v>45939</v>
+      </c>
+      <c r="B102" t="n">
+        <v>728.6550903320312</v>
+      </c>
+      <c r="C102" t="n">
+        <v>708.6151901245117</v>
+      </c>
+      <c r="D102" t="n">
+        <v>749.630810546875</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="3" t="n">
+        <v>45940</v>
+      </c>
+      <c r="B103" t="n">
+        <v>714.5029296875</v>
+      </c>
+      <c r="C103" t="n">
+        <v>694.4630294799805</v>
+      </c>
+      <c r="D103" t="n">
+        <v>735.4786499023437</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="3" t="n">
+        <v>45941</v>
+      </c>
+      <c r="B104" t="n">
+        <v>369.0903930664062</v>
+      </c>
+      <c r="C104" t="n">
+        <v>349.0504928588867</v>
+      </c>
+      <c r="D104" t="n">
+        <v>390.06611328125</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="3" t="n">
+        <v>45942</v>
+      </c>
+      <c r="B105" t="n">
+        <v>245.8695983886719</v>
+      </c>
+      <c r="C105" t="n">
+        <v>225.8296981811523</v>
+      </c>
+      <c r="D105" t="n">
+        <v>266.8453186035156</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="3" t="n">
+        <v>45943</v>
+      </c>
+      <c r="B106" t="n">
+        <v>820.2311401367188</v>
+      </c>
+      <c r="C106" t="n">
+        <v>800.1912399291992</v>
+      </c>
+      <c r="D106" t="n">
+        <v>841.2068603515625</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="3" t="n">
+        <v>45944</v>
+      </c>
+      <c r="B107" t="n">
+        <v>870.4175415039062</v>
+      </c>
+      <c r="C107" t="n">
+        <v>850.3776412963867</v>
+      </c>
+      <c r="D107" t="n">
+        <v>891.39326171875</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="3" t="n">
+        <v>45945</v>
+      </c>
+      <c r="B108" t="n">
+        <v>845.8507690429688</v>
+      </c>
+      <c r="C108" t="n">
+        <v>825.8108688354492</v>
+      </c>
+      <c r="D108" t="n">
+        <v>866.8264892578125</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="3" t="n">
+        <v>45946</v>
+      </c>
+      <c r="B109" t="n">
+        <v>849.4512939453125</v>
+      </c>
+      <c r="C109" t="n">
+        <v>829.411393737793</v>
+      </c>
+      <c r="D109" t="n">
+        <v>870.4270141601562</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="3" t="n">
+        <v>45947</v>
+      </c>
+      <c r="B110" t="n">
+        <v>816.7366333007812</v>
+      </c>
+      <c r="C110" t="n">
+        <v>796.6967330932617</v>
+      </c>
+      <c r="D110" t="n">
+        <v>837.712353515625</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="3" t="n">
+        <v>45948</v>
+      </c>
+      <c r="B111" t="n">
+        <v>352.9286193847656</v>
+      </c>
+      <c r="C111" t="n">
+        <v>332.8887191772461</v>
+      </c>
+      <c r="D111" t="n">
+        <v>373.9043395996093</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="3" t="n">
+        <v>45949</v>
+      </c>
+      <c r="B112" t="n">
+        <v>199.7013397216797</v>
+      </c>
+      <c r="C112" t="n">
+        <v>179.6614395141602</v>
+      </c>
+      <c r="D112" t="n">
+        <v>220.6770599365234</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="3" t="n">
+        <v>45950</v>
+      </c>
+      <c r="B113" t="n">
+        <v>900.1537475585938</v>
+      </c>
+      <c r="C113" t="n">
+        <v>880.1138473510742</v>
+      </c>
+      <c r="D113" t="n">
+        <v>921.1294677734375</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="3" t="n">
+        <v>45951</v>
+      </c>
+      <c r="B114" t="n">
+        <v>877.60595703125</v>
+      </c>
+      <c r="C114" t="n">
+        <v>857.5660568237305</v>
+      </c>
+      <c r="D114" t="n">
+        <v>898.5816772460937</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="3" t="n">
+        <v>45952</v>
+      </c>
+      <c r="B115" t="n">
+        <v>868.0427856445312</v>
+      </c>
+      <c r="C115" t="n">
+        <v>848.0028854370117</v>
+      </c>
+      <c r="D115" t="n">
+        <v>889.018505859375</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="3" t="n">
+        <v>45953</v>
+      </c>
+      <c r="B116" t="n">
+        <v>839.9580078125</v>
+      </c>
+      <c r="C116" t="n">
+        <v>819.9181076049805</v>
+      </c>
+      <c r="D116" t="n">
+        <v>860.9337280273437</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="3" t="n">
+        <v>45954</v>
+      </c>
+      <c r="B117" t="n">
+        <v>841.828125</v>
+      </c>
+      <c r="C117" t="n">
+        <v>821.7882247924805</v>
+      </c>
+      <c r="D117" t="n">
+        <v>862.8038452148437</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="3" t="n">
+        <v>45955</v>
+      </c>
+      <c r="B118" t="n">
+        <v>353.5214538574219</v>
+      </c>
+      <c r="C118" t="n">
+        <v>333.4815536499024</v>
+      </c>
+      <c r="D118" t="n">
+        <v>374.4971740722656</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="3" t="n">
+        <v>45956</v>
+      </c>
+      <c r="B119" t="n">
+        <v>176.5606079101562</v>
+      </c>
+      <c r="C119" t="n">
+        <v>156.5207077026367</v>
+      </c>
+      <c r="D119" t="n">
+        <v>197.536328125</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="3" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B120" t="n">
+        <v>860.5498046875</v>
+      </c>
+      <c r="C120" t="n">
+        <v>840.5099044799805</v>
+      </c>
+      <c r="D120" t="n">
+        <v>881.5255249023437</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="3" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B121" t="n">
+        <v>932.423095703125</v>
+      </c>
+      <c r="C121" t="n">
+        <v>912.3831954956055</v>
+      </c>
+      <c r="D121" t="n">
+        <v>953.3988159179687</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="3" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B122" t="n">
+        <v>944.9631958007812</v>
+      </c>
+      <c r="C122" t="n">
+        <v>924.9232955932617</v>
+      </c>
+      <c r="D122" t="n">
+        <v>965.938916015625</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="3" t="n">
+        <v>45960</v>
+      </c>
+      <c r="B123" t="n">
+        <v>912.8400268554688</v>
+      </c>
+      <c r="C123" t="n">
+        <v>892.8001266479492</v>
+      </c>
+      <c r="D123" t="n">
+        <v>933.8157470703125</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="3" t="n">
+        <v>45961</v>
+      </c>
+      <c r="B124" t="n">
+        <v>793.9608764648438</v>
+      </c>
+      <c r="C124" t="n">
+        <v>773.9209762573242</v>
+      </c>
+      <c r="D124" t="n">
+        <v>814.9365966796875</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3364,7 +5926,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D63"/>
+  <dimension ref="A1:D124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4260,6 +6822,860 @@
       </c>
       <c r="D63" t="n">
         <v>167.0147399902344</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="3" t="n">
+        <v>45901</v>
+      </c>
+      <c r="B64" t="n">
+        <v>401.5998840332031</v>
+      </c>
+      <c r="C64" t="n">
+        <v>389.5723388671875</v>
+      </c>
+      <c r="D64" t="n">
+        <v>413.5412292480469</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="3" t="n">
+        <v>45902</v>
+      </c>
+      <c r="B65" t="n">
+        <v>404.7550048828125</v>
+      </c>
+      <c r="C65" t="n">
+        <v>392.7274597167969</v>
+      </c>
+      <c r="D65" t="n">
+        <v>416.6963500976562</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="3" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B66" t="n">
+        <v>398.6282348632812</v>
+      </c>
+      <c r="C66" t="n">
+        <v>386.6006896972656</v>
+      </c>
+      <c r="D66" t="n">
+        <v>410.569580078125</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="3" t="n">
+        <v>45904</v>
+      </c>
+      <c r="B67" t="n">
+        <v>388.7770080566406</v>
+      </c>
+      <c r="C67" t="n">
+        <v>376.749462890625</v>
+      </c>
+      <c r="D67" t="n">
+        <v>400.7183532714844</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="3" t="n">
+        <v>45905</v>
+      </c>
+      <c r="B68" t="n">
+        <v>397.9453430175781</v>
+      </c>
+      <c r="C68" t="n">
+        <v>385.9177978515625</v>
+      </c>
+      <c r="D68" t="n">
+        <v>409.8866882324219</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="3" t="n">
+        <v>45906</v>
+      </c>
+      <c r="B69" t="n">
+        <v>261.87255859375</v>
+      </c>
+      <c r="C69" t="n">
+        <v>249.8450134277344</v>
+      </c>
+      <c r="D69" t="n">
+        <v>273.8139038085938</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="3" t="n">
+        <v>45907</v>
+      </c>
+      <c r="B70" t="n">
+        <v>227.9563446044922</v>
+      </c>
+      <c r="C70" t="n">
+        <v>215.9287994384766</v>
+      </c>
+      <c r="D70" t="n">
+        <v>239.8976898193359</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="3" t="n">
+        <v>45908</v>
+      </c>
+      <c r="B71" t="n">
+        <v>394.9475708007812</v>
+      </c>
+      <c r="C71" t="n">
+        <v>382.9200256347656</v>
+      </c>
+      <c r="D71" t="n">
+        <v>406.888916015625</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="3" t="n">
+        <v>45909</v>
+      </c>
+      <c r="B72" t="n">
+        <v>415.3553161621094</v>
+      </c>
+      <c r="C72" t="n">
+        <v>403.3277709960938</v>
+      </c>
+      <c r="D72" t="n">
+        <v>427.2966613769531</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="3" t="n">
+        <v>45910</v>
+      </c>
+      <c r="B73" t="n">
+        <v>424.1463012695312</v>
+      </c>
+      <c r="C73" t="n">
+        <v>412.1187561035156</v>
+      </c>
+      <c r="D73" t="n">
+        <v>436.087646484375</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="3" t="n">
+        <v>45911</v>
+      </c>
+      <c r="B74" t="n">
+        <v>487.9300231933594</v>
+      </c>
+      <c r="C74" t="n">
+        <v>475.9024780273438</v>
+      </c>
+      <c r="D74" t="n">
+        <v>499.8713684082031</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="3" t="n">
+        <v>45912</v>
+      </c>
+      <c r="B75" t="n">
+        <v>453.3745727539062</v>
+      </c>
+      <c r="C75" t="n">
+        <v>441.3470275878906</v>
+      </c>
+      <c r="D75" t="n">
+        <v>465.31591796875</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="3" t="n">
+        <v>45913</v>
+      </c>
+      <c r="B76" t="n">
+        <v>332.4699401855469</v>
+      </c>
+      <c r="C76" t="n">
+        <v>320.4423950195313</v>
+      </c>
+      <c r="D76" t="n">
+        <v>344.4112854003906</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="3" t="n">
+        <v>45914</v>
+      </c>
+      <c r="B77" t="n">
+        <v>265.8313598632812</v>
+      </c>
+      <c r="C77" t="n">
+        <v>253.8038146972656</v>
+      </c>
+      <c r="D77" t="n">
+        <v>277.772705078125</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="3" t="n">
+        <v>45915</v>
+      </c>
+      <c r="B78" t="n">
+        <v>496.8903503417969</v>
+      </c>
+      <c r="C78" t="n">
+        <v>484.8628051757813</v>
+      </c>
+      <c r="D78" t="n">
+        <v>508.8316955566406</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="3" t="n">
+        <v>45916</v>
+      </c>
+      <c r="B79" t="n">
+        <v>489.4170532226562</v>
+      </c>
+      <c r="C79" t="n">
+        <v>477.3895080566406</v>
+      </c>
+      <c r="D79" t="n">
+        <v>501.3583984375</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="3" t="n">
+        <v>45917</v>
+      </c>
+      <c r="B80" t="n">
+        <v>499.7837524414062</v>
+      </c>
+      <c r="C80" t="n">
+        <v>487.7562072753906</v>
+      </c>
+      <c r="D80" t="n">
+        <v>511.72509765625</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="3" t="n">
+        <v>45918</v>
+      </c>
+      <c r="B81" t="n">
+        <v>496.1004638671875</v>
+      </c>
+      <c r="C81" t="n">
+        <v>484.0729187011719</v>
+      </c>
+      <c r="D81" t="n">
+        <v>508.0418090820312</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="3" t="n">
+        <v>45919</v>
+      </c>
+      <c r="B82" t="n">
+        <v>503.936767578125</v>
+      </c>
+      <c r="C82" t="n">
+        <v>491.9092224121094</v>
+      </c>
+      <c r="D82" t="n">
+        <v>515.8781127929688</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="3" t="n">
+        <v>45920</v>
+      </c>
+      <c r="B83" t="n">
+        <v>325.7967529296875</v>
+      </c>
+      <c r="C83" t="n">
+        <v>313.7692077636719</v>
+      </c>
+      <c r="D83" t="n">
+        <v>337.7380981445312</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="3" t="n">
+        <v>45921</v>
+      </c>
+      <c r="B84" t="n">
+        <v>268.4039306640625</v>
+      </c>
+      <c r="C84" t="n">
+        <v>256.3763854980469</v>
+      </c>
+      <c r="D84" t="n">
+        <v>280.3452758789062</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="3" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B85" t="n">
+        <v>519.9779052734375</v>
+      </c>
+      <c r="C85" t="n">
+        <v>507.9503601074219</v>
+      </c>
+      <c r="D85" t="n">
+        <v>531.9192504882812</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="3" t="n">
+        <v>45923</v>
+      </c>
+      <c r="B86" t="n">
+        <v>516.5445556640625</v>
+      </c>
+      <c r="C86" t="n">
+        <v>504.5170104980469</v>
+      </c>
+      <c r="D86" t="n">
+        <v>528.4859008789062</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="3" t="n">
+        <v>45924</v>
+      </c>
+      <c r="B87" t="n">
+        <v>532.326904296875</v>
+      </c>
+      <c r="C87" t="n">
+        <v>520.2993591308593</v>
+      </c>
+      <c r="D87" t="n">
+        <v>544.2682495117188</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="3" t="n">
+        <v>45925</v>
+      </c>
+      <c r="B88" t="n">
+        <v>525.5733642578125</v>
+      </c>
+      <c r="C88" t="n">
+        <v>513.5458190917968</v>
+      </c>
+      <c r="D88" t="n">
+        <v>537.5147094726562</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="3" t="n">
+        <v>45926</v>
+      </c>
+      <c r="B89" t="n">
+        <v>526.7828979492188</v>
+      </c>
+      <c r="C89" t="n">
+        <v>514.7553527832031</v>
+      </c>
+      <c r="D89" t="n">
+        <v>538.7242431640625</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="3" t="n">
+        <v>45927</v>
+      </c>
+      <c r="B90" t="n">
+        <v>381.1640319824219</v>
+      </c>
+      <c r="C90" t="n">
+        <v>369.1364868164063</v>
+      </c>
+      <c r="D90" t="n">
+        <v>393.1053771972656</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="3" t="n">
+        <v>45928</v>
+      </c>
+      <c r="B91" t="n">
+        <v>270.8760375976562</v>
+      </c>
+      <c r="C91" t="n">
+        <v>258.8484924316406</v>
+      </c>
+      <c r="D91" t="n">
+        <v>282.8173828125</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="3" t="n">
+        <v>45929</v>
+      </c>
+      <c r="B92" t="n">
+        <v>476.7840576171875</v>
+      </c>
+      <c r="C92" t="n">
+        <v>464.7565124511719</v>
+      </c>
+      <c r="D92" t="n">
+        <v>488.7254028320312</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="3" t="n">
+        <v>45930</v>
+      </c>
+      <c r="B93" t="n">
+        <v>470.6269836425781</v>
+      </c>
+      <c r="C93" t="n">
+        <v>458.5994384765625</v>
+      </c>
+      <c r="D93" t="n">
+        <v>482.5683288574219</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="3" t="n">
+        <v>45931</v>
+      </c>
+      <c r="B94" t="n">
+        <v>488.7055053710938</v>
+      </c>
+      <c r="C94" t="n">
+        <v>476.6779602050781</v>
+      </c>
+      <c r="D94" t="n">
+        <v>500.6468505859375</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="3" t="n">
+        <v>45932</v>
+      </c>
+      <c r="B95" t="n">
+        <v>491.0556335449219</v>
+      </c>
+      <c r="C95" t="n">
+        <v>479.0280883789063</v>
+      </c>
+      <c r="D95" t="n">
+        <v>502.9969787597656</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="3" t="n">
+        <v>45933</v>
+      </c>
+      <c r="B96" t="n">
+        <v>483.5828247070312</v>
+      </c>
+      <c r="C96" t="n">
+        <v>471.5552795410156</v>
+      </c>
+      <c r="D96" t="n">
+        <v>495.524169921875</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="3" t="n">
+        <v>45934</v>
+      </c>
+      <c r="B97" t="n">
+        <v>353.1631164550781</v>
+      </c>
+      <c r="C97" t="n">
+        <v>341.1355712890625</v>
+      </c>
+      <c r="D97" t="n">
+        <v>365.1044616699219</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="3" t="n">
+        <v>45935</v>
+      </c>
+      <c r="B98" t="n">
+        <v>273.2082214355469</v>
+      </c>
+      <c r="C98" t="n">
+        <v>261.1806762695313</v>
+      </c>
+      <c r="D98" t="n">
+        <v>285.1495666503906</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="3" t="n">
+        <v>45936</v>
+      </c>
+      <c r="B99" t="n">
+        <v>484.2745361328125</v>
+      </c>
+      <c r="C99" t="n">
+        <v>472.2469909667969</v>
+      </c>
+      <c r="D99" t="n">
+        <v>496.2158813476562</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="3" t="n">
+        <v>45937</v>
+      </c>
+      <c r="B100" t="n">
+        <v>478.235107421875</v>
+      </c>
+      <c r="C100" t="n">
+        <v>466.2075622558594</v>
+      </c>
+      <c r="D100" t="n">
+        <v>490.1764526367188</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="3" t="n">
+        <v>45938</v>
+      </c>
+      <c r="B101" t="n">
+        <v>480.9932556152344</v>
+      </c>
+      <c r="C101" t="n">
+        <v>468.9657104492188</v>
+      </c>
+      <c r="D101" t="n">
+        <v>492.9346008300781</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="3" t="n">
+        <v>45939</v>
+      </c>
+      <c r="B102" t="n">
+        <v>472.4795227050781</v>
+      </c>
+      <c r="C102" t="n">
+        <v>460.4519775390625</v>
+      </c>
+      <c r="D102" t="n">
+        <v>484.4208679199219</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="3" t="n">
+        <v>45940</v>
+      </c>
+      <c r="B103" t="n">
+        <v>503.841552734375</v>
+      </c>
+      <c r="C103" t="n">
+        <v>491.8140075683594</v>
+      </c>
+      <c r="D103" t="n">
+        <v>515.7828979492188</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="3" t="n">
+        <v>45941</v>
+      </c>
+      <c r="B104" t="n">
+        <v>350.8030700683594</v>
+      </c>
+      <c r="C104" t="n">
+        <v>338.7755249023438</v>
+      </c>
+      <c r="D104" t="n">
+        <v>362.7444152832031</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="3" t="n">
+        <v>45942</v>
+      </c>
+      <c r="B105" t="n">
+        <v>301.81689453125</v>
+      </c>
+      <c r="C105" t="n">
+        <v>289.7893493652344</v>
+      </c>
+      <c r="D105" t="n">
+        <v>313.7582397460938</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="3" t="n">
+        <v>45943</v>
+      </c>
+      <c r="B106" t="n">
+        <v>495.3350524902344</v>
+      </c>
+      <c r="C106" t="n">
+        <v>483.3075073242188</v>
+      </c>
+      <c r="D106" t="n">
+        <v>507.2763977050781</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="3" t="n">
+        <v>45944</v>
+      </c>
+      <c r="B107" t="n">
+        <v>499.0501708984375</v>
+      </c>
+      <c r="C107" t="n">
+        <v>487.0226257324219</v>
+      </c>
+      <c r="D107" t="n">
+        <v>510.9915161132812</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="3" t="n">
+        <v>45945</v>
+      </c>
+      <c r="B108" t="n">
+        <v>499.5094909667969</v>
+      </c>
+      <c r="C108" t="n">
+        <v>487.4819458007813</v>
+      </c>
+      <c r="D108" t="n">
+        <v>511.4508361816406</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="3" t="n">
+        <v>45946</v>
+      </c>
+      <c r="B109" t="n">
+        <v>509.9055786132812</v>
+      </c>
+      <c r="C109" t="n">
+        <v>497.8780334472656</v>
+      </c>
+      <c r="D109" t="n">
+        <v>521.846923828125</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="3" t="n">
+        <v>45947</v>
+      </c>
+      <c r="B110" t="n">
+        <v>518.6151123046875</v>
+      </c>
+      <c r="C110" t="n">
+        <v>506.5875671386719</v>
+      </c>
+      <c r="D110" t="n">
+        <v>530.5564575195312</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="3" t="n">
+        <v>45948</v>
+      </c>
+      <c r="B111" t="n">
+        <v>358.7292785644531</v>
+      </c>
+      <c r="C111" t="n">
+        <v>346.7017333984375</v>
+      </c>
+      <c r="D111" t="n">
+        <v>370.6706237792969</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="3" t="n">
+        <v>45949</v>
+      </c>
+      <c r="B112" t="n">
+        <v>271.6744384765625</v>
+      </c>
+      <c r="C112" t="n">
+        <v>259.6468933105469</v>
+      </c>
+      <c r="D112" t="n">
+        <v>283.6157836914062</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="3" t="n">
+        <v>45950</v>
+      </c>
+      <c r="B113" t="n">
+        <v>536.5259399414062</v>
+      </c>
+      <c r="C113" t="n">
+        <v>524.4983947753906</v>
+      </c>
+      <c r="D113" t="n">
+        <v>548.46728515625</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="3" t="n">
+        <v>45951</v>
+      </c>
+      <c r="B114" t="n">
+        <v>519.6115112304688</v>
+      </c>
+      <c r="C114" t="n">
+        <v>507.5839660644531</v>
+      </c>
+      <c r="D114" t="n">
+        <v>531.5528564453125</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="3" t="n">
+        <v>45952</v>
+      </c>
+      <c r="B115" t="n">
+        <v>537.4368896484375</v>
+      </c>
+      <c r="C115" t="n">
+        <v>525.4093444824218</v>
+      </c>
+      <c r="D115" t="n">
+        <v>549.3782348632812</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="3" t="n">
+        <v>45953</v>
+      </c>
+      <c r="B116" t="n">
+        <v>538.2035522460938</v>
+      </c>
+      <c r="C116" t="n">
+        <v>526.1760070800781</v>
+      </c>
+      <c r="D116" t="n">
+        <v>550.1448974609375</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="3" t="n">
+        <v>45954</v>
+      </c>
+      <c r="B117" t="n">
+        <v>540.5010375976562</v>
+      </c>
+      <c r="C117" t="n">
+        <v>528.4734924316406</v>
+      </c>
+      <c r="D117" t="n">
+        <v>552.4423828125</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="3" t="n">
+        <v>45955</v>
+      </c>
+      <c r="B118" t="n">
+        <v>360.0453491210938</v>
+      </c>
+      <c r="C118" t="n">
+        <v>348.0178039550781</v>
+      </c>
+      <c r="D118" t="n">
+        <v>371.9866943359375</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="3" t="n">
+        <v>45956</v>
+      </c>
+      <c r="B119" t="n">
+        <v>292.9142761230469</v>
+      </c>
+      <c r="C119" t="n">
+        <v>280.8867309570313</v>
+      </c>
+      <c r="D119" t="n">
+        <v>304.8556213378906</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="3" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B120" t="n">
+        <v>477.574462890625</v>
+      </c>
+      <c r="C120" t="n">
+        <v>465.5469177246094</v>
+      </c>
+      <c r="D120" t="n">
+        <v>489.5158081054688</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="3" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B121" t="n">
+        <v>515.2933349609375</v>
+      </c>
+      <c r="C121" t="n">
+        <v>503.2657897949219</v>
+      </c>
+      <c r="D121" t="n">
+        <v>527.2346801757812</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="3" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B122" t="n">
+        <v>505.037109375</v>
+      </c>
+      <c r="C122" t="n">
+        <v>493.0095642089844</v>
+      </c>
+      <c r="D122" t="n">
+        <v>516.9784545898438</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="3" t="n">
+        <v>45960</v>
+      </c>
+      <c r="B123" t="n">
+        <v>473.8363952636719</v>
+      </c>
+      <c r="C123" t="n">
+        <v>461.8088500976563</v>
+      </c>
+      <c r="D123" t="n">
+        <v>485.7777404785156</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="3" t="n">
+        <v>45961</v>
+      </c>
+      <c r="B124" t="n">
+        <v>458.4465026855469</v>
+      </c>
+      <c r="C124" t="n">
+        <v>446.4189575195313</v>
+      </c>
+      <c r="D124" t="n">
+        <v>470.3878479003906</v>
       </c>
     </row>
   </sheetData>
@@ -7609,7 +11025,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D63"/>
+  <dimension ref="A1:D124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7647,10 +11063,10 @@
         <v>13794.56740999681</v>
       </c>
       <c r="C2" t="n">
-        <v>13920.27458569055</v>
+        <v>13790.13912461582</v>
       </c>
       <c r="D2" t="n">
-        <v>18103.64000000001</v>
+        <v>18842.84872272155</v>
       </c>
     </row>
     <row r="3">
@@ -7661,10 +11077,10 @@
         <v>14238.73300194775</v>
       </c>
       <c r="C3" t="n">
-        <v>13880.84737202192</v>
+        <v>13603.03797843279</v>
       </c>
       <c r="D3" t="n">
-        <v>18103.64000000001</v>
+        <v>18877.30082819709</v>
       </c>
     </row>
     <row r="4">
@@ -7675,10 +11091,10 @@
         <v>14287.4219028265</v>
       </c>
       <c r="C4" t="n">
-        <v>13438.44518908839</v>
+        <v>13279.14058985715</v>
       </c>
       <c r="D4" t="n">
-        <v>18103.64000000001</v>
+        <v>18628.41415329586</v>
       </c>
     </row>
     <row r="5">
@@ -7689,10 +11105,10 @@
         <v>14318.26100132001</v>
       </c>
       <c r="C5" t="n">
-        <v>12930.05242772376</v>
+        <v>12941.75236103569</v>
       </c>
       <c r="D5" t="n">
-        <v>17951.73227022875</v>
+        <v>17940.03233691682</v>
       </c>
     </row>
     <row r="6">
@@ -7703,10 +11119,10 @@
         <v>4883.714724090128</v>
       </c>
       <c r="C6" t="n">
-        <v>3161.387913052596</v>
+        <v>3409.571826678277</v>
       </c>
       <c r="D6" t="n">
-        <v>8689.560822237034</v>
+        <v>8441.376908611353</v>
       </c>
     </row>
     <row r="7">
@@ -7717,10 +11133,10 @@
         <v>2619.263676598602</v>
       </c>
       <c r="C7" t="n">
-        <v>1216.659159621682</v>
+        <v>1236.952922744582</v>
       </c>
       <c r="D7" t="n">
-        <v>6358.968047091148</v>
+        <v>6338.674283968247</v>
       </c>
     </row>
     <row r="8">
@@ -7731,10 +11147,10 @@
         <v>14724.06247748104</v>
       </c>
       <c r="C8" t="n">
-        <v>14552.82825739606</v>
+        <v>14435.74675298336</v>
       </c>
       <c r="D8" t="n">
-        <v>18103.64000000001</v>
+        <v>19717.27468635372</v>
       </c>
     </row>
     <row r="9">
@@ -7745,10 +11161,10 @@
         <v>14023.30449892543</v>
       </c>
       <c r="C9" t="n">
-        <v>13716.62084916454</v>
+        <v>13699.81871552128</v>
       </c>
       <c r="D9" t="n">
-        <v>18103.64000000001</v>
+        <v>18667.75756748582</v>
       </c>
     </row>
     <row r="10">
@@ -7759,10 +11175,10 @@
         <v>14237.85332454013</v>
       </c>
       <c r="C10" t="n">
-        <v>13564.01022071925</v>
+        <v>13642.3353541963</v>
       </c>
       <c r="D10" t="n">
-        <v>18103.64000000001</v>
+        <v>18570.93648043084</v>
       </c>
     </row>
     <row r="11">
@@ -7773,10 +11189,10 @@
         <v>13834.19911546971</v>
       </c>
       <c r="C11" t="n">
-        <v>13256.98202042254</v>
+        <v>13301.56804539669</v>
       </c>
       <c r="D11" t="n">
-        <v>18103.64000000001</v>
+        <v>18334.50474608961</v>
       </c>
     </row>
     <row r="12">
@@ -7787,10 +11203,10 @@
         <v>14197.83376345777</v>
       </c>
       <c r="C12" t="n">
-        <v>12630.63466692163</v>
+        <v>12809.22574434759</v>
       </c>
       <c r="D12" t="n">
-        <v>17972.28554554079</v>
+        <v>17793.69446811483</v>
       </c>
     </row>
     <row r="13">
@@ -7801,10 +11217,10 @@
         <v>4653.028174941385</v>
       </c>
       <c r="C13" t="n">
-        <v>3094.228593441448</v>
+        <v>3017.411101180612</v>
       </c>
       <c r="D13" t="n">
-        <v>8352.348264253822</v>
+        <v>8429.165756514658</v>
       </c>
     </row>
     <row r="14">
@@ -7815,10 +11231,10 @@
         <v>2608.037580484673</v>
       </c>
       <c r="C14" t="n">
-        <v>929.1528767782179</v>
+        <v>1064.375677084985</v>
       </c>
       <c r="D14" t="n">
-        <v>6213.554974620816</v>
+        <v>6078.33217431405</v>
       </c>
     </row>
     <row r="15">
@@ -7829,10 +11245,10 @@
         <v>14535.74504262803</v>
       </c>
       <c r="C15" t="n">
-        <v>14464.99696201171</v>
+        <v>14483.78439825698</v>
       </c>
       <c r="D15" t="n">
-        <v>18103.64000000001</v>
+        <v>19409.88000340534</v>
       </c>
     </row>
     <row r="16">
@@ -7843,10 +11259,10 @@
         <v>14004.85305436916</v>
       </c>
       <c r="C16" t="n">
-        <v>13921.30518392834</v>
+        <v>14038.37965610019</v>
       </c>
       <c r="D16" t="n">
-        <v>18103.64000000001</v>
+        <v>19024.45389404439</v>
       </c>
     </row>
     <row r="17">
@@ -7857,10 +11273,10 @@
         <v>14174.76033205532</v>
       </c>
       <c r="C17" t="n">
-        <v>13886.52363414332</v>
+        <v>13831.31216582297</v>
       </c>
       <c r="D17" t="n">
-        <v>18103.64000000001</v>
+        <v>19076.45947485017</v>
       </c>
     </row>
     <row r="18">
@@ -7871,10 +11287,10 @@
         <v>13890.08832909913</v>
       </c>
       <c r="C18" t="n">
-        <v>13640.88496042172</v>
+        <v>13662.93504341179</v>
       </c>
       <c r="D18" t="n">
-        <v>18103.64000000001</v>
+        <v>18664.12052103647</v>
       </c>
     </row>
     <row r="19">
@@ -7885,10 +11301,10 @@
         <v>13948.70517078115</v>
       </c>
       <c r="C19" t="n">
-        <v>13002.38531042997</v>
+        <v>13135.25472688714</v>
       </c>
       <c r="D19" t="n">
-        <v>18103.64000000001</v>
+        <v>18152.16367131579</v>
       </c>
     </row>
     <row r="20">
@@ -7899,10 +11315,10 @@
         <v>4466.041514774875</v>
       </c>
       <c r="C20" t="n">
-        <v>3433.149077182004</v>
+        <v>3523.371501936147</v>
       </c>
       <c r="D20" t="n">
-        <v>8573.316520727121</v>
+        <v>8483.094095972978</v>
       </c>
     </row>
     <row r="21">
@@ -7913,10 +11329,10 @@
         <v>2789.011738253619</v>
       </c>
       <c r="C21" t="n">
-        <v>1320.133158893703</v>
+        <v>1283.014487568915</v>
       </c>
       <c r="D21" t="n">
-        <v>6354.813901597909</v>
+        <v>6391.932572922698</v>
       </c>
     </row>
     <row r="22">
@@ -7927,10 +11343,10 @@
         <v>14720.15206727734</v>
       </c>
       <c r="C22" t="n">
-        <v>14713.39166145054</v>
+        <v>14388.95445121726</v>
       </c>
       <c r="D22" t="n">
-        <v>18103.64000000001</v>
+        <v>19725.23835521242</v>
       </c>
     </row>
     <row r="23">
@@ -7941,10 +11357,10 @@
         <v>13968.31476189047</v>
       </c>
       <c r="C23" t="n">
-        <v>13865.44405273782</v>
+        <v>13814.48106160656</v>
       </c>
       <c r="D23" t="n">
-        <v>18103.64000000001</v>
+        <v>18976.65529811188</v>
       </c>
     </row>
     <row r="24">
@@ -7955,10 +11371,10 @@
         <v>14181.65751933825</v>
       </c>
       <c r="C24" t="n">
-        <v>13718.04657161547</v>
+        <v>13750.66460577518</v>
       </c>
       <c r="D24" t="n">
-        <v>18103.64000000001</v>
+        <v>18883.75443680757</v>
       </c>
     </row>
     <row r="25">
@@ -7969,10 +11385,10 @@
         <v>13796.5048331889</v>
       </c>
       <c r="C25" t="n">
-        <v>13333.31790597686</v>
+        <v>13688.06378920686</v>
       </c>
       <c r="D25" t="n">
-        <v>18103.64000000001</v>
+        <v>18361.22419748345</v>
       </c>
     </row>
     <row r="26">
@@ -7983,10 +11399,10 @@
         <v>13496.93541284209</v>
       </c>
       <c r="C26" t="n">
-        <v>12979.81621800262</v>
+        <v>12920.36531271488</v>
       </c>
       <c r="D26" t="n">
-        <v>18022.45206861904</v>
+        <v>18081.90297390678</v>
       </c>
     </row>
     <row r="27">
@@ -7997,10 +11413,10 @@
         <v>4169.173578339546</v>
       </c>
       <c r="C27" t="n">
-        <v>3411.256205369382</v>
+        <v>3115.151312627007</v>
       </c>
       <c r="D27" t="n">
-        <v>8184.55188880971</v>
+        <v>8480.656781552085</v>
       </c>
     </row>
     <row r="28">
@@ -8011,10 +11427,10 @@
         <v>2519.852362802057</v>
       </c>
       <c r="C28" t="n">
-        <v>973.1513286097694</v>
+        <v>1028.470193534927</v>
       </c>
       <c r="D28" t="n">
-        <v>6262.590750509969</v>
+        <v>6207.271885584812</v>
       </c>
     </row>
     <row r="29">
@@ -8025,10 +11441,10 @@
         <v>14303.9641212084</v>
       </c>
       <c r="C29" t="n">
-        <v>14587.88899296918</v>
+        <v>14576.10846293759</v>
       </c>
       <c r="D29" t="n">
-        <v>18103.64000000001</v>
+        <v>19758.61274822921</v>
       </c>
     </row>
     <row r="30">
@@ -8039,10 +11455,10 @@
         <v>13105.02509356947</v>
       </c>
       <c r="C30" t="n">
-        <v>13997.01948018781</v>
+        <v>14063.60958803454</v>
       </c>
       <c r="D30" t="n">
-        <v>18103.64000000001</v>
+        <v>18939.30681004191</v>
       </c>
     </row>
     <row r="31">
@@ -8053,10 +11469,10 @@
         <v>13758.78929201273</v>
       </c>
       <c r="C31" t="n">
-        <v>13791.43465964041</v>
+        <v>13971.10059621159</v>
       </c>
       <c r="D31" t="n">
-        <v>18103.64000000001</v>
+        <v>18873.89205031388</v>
       </c>
     </row>
     <row r="32">
@@ -8067,10 +11483,10 @@
         <v>13842.3440324041</v>
       </c>
       <c r="C32" t="n">
-        <v>13680.06052007223</v>
+        <v>13659.81489458502</v>
       </c>
       <c r="D32" t="n">
-        <v>18103.64000000001</v>
+        <v>18596.08068975444</v>
       </c>
     </row>
     <row r="33">
@@ -8081,10 +11497,10 @@
         <v>13405.55151382648</v>
       </c>
       <c r="C33" t="n">
-        <v>12726.67549685684</v>
+        <v>12708.08190063492</v>
       </c>
       <c r="D33" t="n">
-        <v>17985.87064603049</v>
+        <v>18004.46424225241</v>
       </c>
     </row>
     <row r="34">
@@ -8095,10 +11511,10 @@
         <v>3754.644798759994</v>
       </c>
       <c r="C34" t="n">
-        <v>3202.339063672484</v>
+        <v>3047.247166269949</v>
       </c>
       <c r="D34" t="n">
-        <v>7978.241061191255</v>
+        <v>8133.33295859379</v>
       </c>
     </row>
     <row r="35">
@@ -8109,10 +11525,10 @@
         <v>2525.233489005451</v>
       </c>
       <c r="C35" t="n">
-        <v>771.518203064846</v>
+        <v>945.3938066758999</v>
       </c>
       <c r="D35" t="n">
-        <v>6020.449995649182</v>
+        <v>5846.574392038128</v>
       </c>
     </row>
     <row r="36">
@@ -8123,10 +11539,10 @@
         <v>14802.4592207476</v>
       </c>
       <c r="C36" t="n">
-        <v>14727.99063859106</v>
+        <v>14730.72108650491</v>
       </c>
       <c r="D36" t="n">
-        <v>18103.64000000001</v>
+        <v>19333.79012842778</v>
       </c>
     </row>
     <row r="37">
@@ -8137,10 +11553,10 @@
         <v>14042.69867373048</v>
       </c>
       <c r="C37" t="n">
-        <v>13909.87378426202</v>
+        <v>13863.61429387831</v>
       </c>
       <c r="D37" t="n">
-        <v>18103.64000000001</v>
+        <v>18859.89633483265</v>
       </c>
     </row>
     <row r="38">
@@ -8151,10 +11567,10 @@
         <v>14248.19063912519</v>
       </c>
       <c r="C38" t="n">
-        <v>13893.06697599967</v>
+        <v>13747.8330421685</v>
       </c>
       <c r="D38" t="n">
-        <v>18103.64000000001</v>
+        <v>18816.09999389439</v>
       </c>
     </row>
     <row r="39">
@@ -8165,10 +11581,10 @@
         <v>13836.38046984441</v>
       </c>
       <c r="C39" t="n">
-        <v>13418.99820234652</v>
+        <v>13535.13730505876</v>
       </c>
       <c r="D39" t="n">
-        <v>18103.64000000001</v>
+        <v>18435.28525572381</v>
       </c>
     </row>
     <row r="40">
@@ -8179,10 +11595,10 @@
         <v>13438.20131983604</v>
       </c>
       <c r="C40" t="n">
-        <v>12684.25222724587</v>
+        <v>12522.03903632132</v>
       </c>
       <c r="D40" t="n">
-        <v>17730.58351789496</v>
+        <v>17892.79670881952</v>
       </c>
     </row>
     <row r="41">
@@ -8193,10 +11609,10 @@
         <v>4194.192886230781</v>
       </c>
       <c r="C41" t="n">
-        <v>2903.312952713288</v>
+        <v>2836.343715739307</v>
       </c>
       <c r="D41" t="n">
-        <v>7854.049382248275</v>
+        <v>7921.018619222255</v>
       </c>
     </row>
     <row r="42">
@@ -8207,10 +11623,10 @@
         <v>2217.903711656326</v>
       </c>
       <c r="C42" t="n">
-        <v>491.1703395172989</v>
+        <v>562.9923757672058</v>
       </c>
       <c r="D42" t="n">
-        <v>5849.032591607853</v>
+        <v>5777.210555357946</v>
       </c>
     </row>
     <row r="43">
@@ -8221,10 +11637,10 @@
         <v>14961.37617838881</v>
       </c>
       <c r="C43" t="n">
-        <v>14179.96077240761</v>
+        <v>14438.70573087043</v>
       </c>
       <c r="D43" t="n">
-        <v>18103.64000000001</v>
+        <v>19347.60253411031</v>
       </c>
     </row>
     <row r="44">
@@ -8235,10 +11651,10 @@
         <v>14164.316644131</v>
       </c>
       <c r="C44" t="n">
-        <v>13693.1387449639</v>
+        <v>13730.07844199675</v>
       </c>
       <c r="D44" t="n">
-        <v>18103.64000000001</v>
+        <v>18706.0318970465</v>
       </c>
     </row>
     <row r="45">
@@ -8249,10 +11665,10 @@
         <v>14328.50898186134</v>
       </c>
       <c r="C45" t="n">
-        <v>13410.66401162068</v>
+        <v>13729.31057477174</v>
       </c>
       <c r="D45" t="n">
-        <v>18103.64000000001</v>
+        <v>18545.56676395094</v>
       </c>
     </row>
     <row r="46">
@@ -8263,10 +11679,10 @@
         <v>14129.85069775346</v>
       </c>
       <c r="C46" t="n">
-        <v>13244.08500919897</v>
+        <v>13151.43711776296</v>
       </c>
       <c r="D46" t="n">
-        <v>18103.64000000001</v>
+        <v>18525.51476602521</v>
       </c>
     </row>
     <row r="47">
@@ -8277,10 +11693,10 @@
         <v>14286.68598903134</v>
       </c>
       <c r="C47" t="n">
-        <v>12870.88125782229</v>
+        <v>12900.90301182784</v>
       </c>
       <c r="D47" t="n">
-        <v>18103.64000000001</v>
+        <v>18204.72751115672</v>
       </c>
     </row>
     <row r="48">
@@ -8291,10 +11707,10 @@
         <v>4404.945586571836</v>
       </c>
       <c r="C48" t="n">
-        <v>2849.655067479181</v>
+        <v>3009.020838735892</v>
       </c>
       <c r="D48" t="n">
-        <v>8473.892599805116</v>
+        <v>8314.526828548404</v>
       </c>
     </row>
     <row r="49">
@@ -8305,10 +11721,10 @@
         <v>2671.270367139562</v>
       </c>
       <c r="C49" t="n">
-        <v>1006.553909505282</v>
+        <v>698.1991267046535</v>
       </c>
       <c r="D49" t="n">
-        <v>5872.184822820716</v>
+        <v>6180.539605621346</v>
       </c>
     </row>
     <row r="50">
@@ -8319,10 +11735,10 @@
         <v>15406.65997768368</v>
       </c>
       <c r="C50" t="n">
-        <v>14722.77547631207</v>
+        <v>14655.62185501381</v>
       </c>
       <c r="D50" t="n">
-        <v>18103.64000000001</v>
+        <v>19843.68247535355</v>
       </c>
     </row>
     <row r="51">
@@ -8333,10 +11749,10 @@
         <v>14704.37274395331</v>
       </c>
       <c r="C51" t="n">
-        <v>13835.65654881464</v>
+        <v>13993.8788133317</v>
       </c>
       <c r="D51" t="n">
-        <v>18103.64000000001</v>
+        <v>19146.92819801243</v>
       </c>
     </row>
     <row r="52">
@@ -8347,10 +11763,10 @@
         <v>14915.07966167348</v>
       </c>
       <c r="C52" t="n">
-        <v>13924.41172941126</v>
+        <v>14020.48991447938</v>
       </c>
       <c r="D52" t="n">
-        <v>18103.64000000001</v>
+        <v>18958.32663543008</v>
       </c>
     </row>
     <row r="53">
@@ -8361,10 +11777,10 @@
         <v>14556.97822609867</v>
       </c>
       <c r="C53" t="n">
-        <v>13310.092726664</v>
+        <v>13355.84255951436</v>
       </c>
       <c r="D53" t="n">
-        <v>18103.64000000001</v>
+        <v>18521.44226182361</v>
       </c>
     </row>
     <row r="54">
@@ -8375,10 +11791,10 @@
         <v>14632.26152445218</v>
       </c>
       <c r="C54" t="n">
-        <v>12753.07050769274</v>
+        <v>12789.00332960935</v>
       </c>
       <c r="D54" t="n">
-        <v>18048.56399140693</v>
+        <v>18012.63116949032</v>
       </c>
     </row>
     <row r="55">
@@ -8389,10 +11805,10 @@
         <v>4386.278229161324</v>
       </c>
       <c r="C55" t="n">
-        <v>2861.385253419924</v>
+        <v>2910.470781324802</v>
       </c>
       <c r="D55" t="n">
-        <v>8032.658997871474</v>
+        <v>7983.573469966595</v>
       </c>
     </row>
     <row r="56">
@@ -8403,10 +11819,10 @@
         <v>2769.739030396712</v>
       </c>
       <c r="C56" t="n">
-        <v>726.1272610915065</v>
+        <v>750.0622488479268</v>
       </c>
       <c r="D56" t="n">
-        <v>5694.560577533948</v>
+        <v>5670.625589777528</v>
       </c>
     </row>
     <row r="57">
@@ -8417,10 +11833,10 @@
         <v>15203.08988399368</v>
       </c>
       <c r="C57" t="n">
-        <v>14731.80319452603</v>
+        <v>14519.21348234238</v>
       </c>
       <c r="D57" t="n">
-        <v>18103.64000000001</v>
+        <v>19695.6022719731</v>
       </c>
     </row>
     <row r="58">
@@ -8431,10 +11847,10 @@
         <v>14496.20398041248</v>
       </c>
       <c r="C58" t="n">
-        <v>13914.22950688593</v>
+        <v>13793.71070335459</v>
       </c>
       <c r="D58" t="n">
-        <v>18103.64000000001</v>
+        <v>19053.41039223599</v>
       </c>
     </row>
     <row r="59">
@@ -8445,10 +11861,10 @@
         <v>15611.28015474151</v>
       </c>
       <c r="C59" t="n">
-        <v>13915.73518370097</v>
+        <v>13907.99943579165</v>
       </c>
       <c r="D59" t="n">
-        <v>18103.64000000001</v>
+        <v>18775.47579068355</v>
       </c>
     </row>
     <row r="60">
@@ -8459,10 +11875,10 @@
         <v>15524.21219973679</v>
       </c>
       <c r="C60" t="n">
-        <v>13452.27528495667</v>
+        <v>13392.32872892668</v>
       </c>
       <c r="D60" t="n">
-        <v>18103.64000000001</v>
+        <v>18685.2890299219</v>
       </c>
     </row>
     <row r="61">
@@ -8473,10 +11889,10 @@
         <v>15387.3160255748</v>
       </c>
       <c r="C61" t="n">
-        <v>12906.32195454612</v>
+        <v>12917.73708423832</v>
       </c>
       <c r="D61" t="n">
-        <v>18088.71192155466</v>
+        <v>18077.29679186246</v>
       </c>
     </row>
     <row r="62">
@@ -8487,10 +11903,10 @@
         <v>4878.197975810403</v>
       </c>
       <c r="C62" t="n">
-        <v>2901.565257362304</v>
+        <v>3047.416704901044</v>
       </c>
       <c r="D62" t="n">
-        <v>8060.819952071001</v>
+        <v>7914.96850453226</v>
       </c>
     </row>
     <row r="63">
@@ -8501,10 +11917,864 @@
         <v>3048.590344563936</v>
       </c>
       <c r="C63" t="n">
-        <v>676.9230678806143</v>
+        <v>630.7575014561332</v>
       </c>
       <c r="D63" t="n">
-        <v>5784.007224518742</v>
+        <v>5830.172790943223</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="3" t="n">
+        <v>45901</v>
+      </c>
+      <c r="B64" t="n">
+        <v>16507.47866697683</v>
+      </c>
+      <c r="C64" t="n">
+        <v>14770.21164962193</v>
+      </c>
+      <c r="D64" t="n">
+        <v>19794.82429761297</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="3" t="n">
+        <v>45902</v>
+      </c>
+      <c r="B65" t="n">
+        <v>15745.5925553367</v>
+      </c>
+      <c r="C65" t="n">
+        <v>14046.0865670754</v>
+      </c>
+      <c r="D65" t="n">
+        <v>19142.62723012143</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="3" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B66" t="n">
+        <v>15906.36569611302</v>
+      </c>
+      <c r="C66" t="n">
+        <v>14007.83692296239</v>
+      </c>
+      <c r="D66" t="n">
+        <v>19016.14544582614</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="3" t="n">
+        <v>45904</v>
+      </c>
+      <c r="B67" t="n">
+        <v>15843.26488494267</v>
+      </c>
+      <c r="C67" t="n">
+        <v>13553.07779635224</v>
+      </c>
+      <c r="D67" t="n">
+        <v>18861.2019735331</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="3" t="n">
+        <v>45905</v>
+      </c>
+      <c r="B68" t="n">
+        <v>15919.26868827597</v>
+      </c>
+      <c r="C68" t="n">
+        <v>13049.43701829918</v>
+      </c>
+      <c r="D68" t="n">
+        <v>18275.44618344808</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="3" t="n">
+        <v>45906</v>
+      </c>
+      <c r="B69" t="n">
+        <v>5224.850216842042</v>
+      </c>
+      <c r="C69" t="n">
+        <v>2965.651220889906</v>
+      </c>
+      <c r="D69" t="n">
+        <v>8201.645770411365</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="3" t="n">
+        <v>45907</v>
+      </c>
+      <c r="B70" t="n">
+        <v>3474.683214324486</v>
+      </c>
+      <c r="C70" t="n">
+        <v>772.7343717925745</v>
+      </c>
+      <c r="D70" t="n">
+        <v>5865.130073213821</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="3" t="n">
+        <v>45908</v>
+      </c>
+      <c r="B71" t="n">
+        <v>16496.36851520376</v>
+      </c>
+      <c r="C71" t="n">
+        <v>14643.04464531979</v>
+      </c>
+      <c r="D71" t="n">
+        <v>19628.92041243147</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="3" t="n">
+        <v>45909</v>
+      </c>
+      <c r="B72" t="n">
+        <v>15754.61115071842</v>
+      </c>
+      <c r="C72" t="n">
+        <v>13860.81302235531</v>
+      </c>
+      <c r="D72" t="n">
+        <v>19025.6325456831</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="3" t="n">
+        <v>45910</v>
+      </c>
+      <c r="B73" t="n">
+        <v>15963.1194233342</v>
+      </c>
+      <c r="C73" t="n">
+        <v>13778.04628113069</v>
+      </c>
+      <c r="D73" t="n">
+        <v>18942.01245079162</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="3" t="n">
+        <v>45911</v>
+      </c>
+      <c r="B74" t="n">
+        <v>16093.27660695736</v>
+      </c>
+      <c r="C74" t="n">
+        <v>13671.42115851834</v>
+      </c>
+      <c r="D74" t="n">
+        <v>18434.51999484952</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="3" t="n">
+        <v>45912</v>
+      </c>
+      <c r="B75" t="n">
+        <v>15838.59350739496</v>
+      </c>
+      <c r="C75" t="n">
+        <v>12993.52713249763</v>
+      </c>
+      <c r="D75" t="n">
+        <v>18015.63491891339</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="3" t="n">
+        <v>45913</v>
+      </c>
+      <c r="B76" t="n">
+        <v>5126.156599913598</v>
+      </c>
+      <c r="C76" t="n">
+        <v>2863.295467811431</v>
+      </c>
+      <c r="D76" t="n">
+        <v>7862.772981039203</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="3" t="n">
+        <v>45914</v>
+      </c>
+      <c r="B77" t="n">
+        <v>3145.364418119768</v>
+      </c>
+      <c r="C77" t="n">
+        <v>463.0329453542066</v>
+      </c>
+      <c r="D77" t="n">
+        <v>5705.055479508375</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="3" t="n">
+        <v>45915</v>
+      </c>
+      <c r="B78" t="n">
+        <v>17394.42660557033</v>
+      </c>
+      <c r="C78" t="n">
+        <v>14938.77421859859</v>
+      </c>
+      <c r="D78" t="n">
+        <v>20056.46146934872</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="3" t="n">
+        <v>45916</v>
+      </c>
+      <c r="B79" t="n">
+        <v>16631.4390696886</v>
+      </c>
+      <c r="C79" t="n">
+        <v>14145.54773565967</v>
+      </c>
+      <c r="D79" t="n">
+        <v>19455.86906948901</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="3" t="n">
+        <v>45917</v>
+      </c>
+      <c r="B80" t="n">
+        <v>16839.56868805712</v>
+      </c>
+      <c r="C80" t="n">
+        <v>14078.71128358292</v>
+      </c>
+      <c r="D80" t="n">
+        <v>19355.56122436726</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="3" t="n">
+        <v>45918</v>
+      </c>
+      <c r="B81" t="n">
+        <v>16746.61228312842</v>
+      </c>
+      <c r="C81" t="n">
+        <v>14038.58294876448</v>
+      </c>
+      <c r="D81" t="n">
+        <v>18778.05494757047</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="3" t="n">
+        <v>45919</v>
+      </c>
+      <c r="B82" t="n">
+        <v>16412.48611480118</v>
+      </c>
+      <c r="C82" t="n">
+        <v>13271.48938422026</v>
+      </c>
+      <c r="D82" t="n">
+        <v>18441.88482292117</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="3" t="n">
+        <v>45920</v>
+      </c>
+      <c r="B83" t="n">
+        <v>5444.61740935458</v>
+      </c>
+      <c r="C83" t="n">
+        <v>3052.44975274441</v>
+      </c>
+      <c r="D83" t="n">
+        <v>8253.221406296781</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="3" t="n">
+        <v>45921</v>
+      </c>
+      <c r="B84" t="n">
+        <v>3315.701253966312</v>
+      </c>
+      <c r="C84" t="n">
+        <v>463.1730305011056</v>
+      </c>
+      <c r="D84" t="n">
+        <v>5742.861160781129</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="3" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B85" t="n">
+        <v>17720.37772705546</v>
+      </c>
+      <c r="C85" t="n">
+        <v>14706.11349044924</v>
+      </c>
+      <c r="D85" t="n">
+        <v>19989.7656819234</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="3" t="n">
+        <v>45923</v>
+      </c>
+      <c r="B86" t="n">
+        <v>16930.0706350898</v>
+      </c>
+      <c r="C86" t="n">
+        <v>14095.87814182204</v>
+      </c>
+      <c r="D86" t="n">
+        <v>19196.98480804506</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="3" t="n">
+        <v>45924</v>
+      </c>
+      <c r="B87" t="n">
+        <v>17143.4979310832</v>
+      </c>
+      <c r="C87" t="n">
+        <v>13916.8885828466</v>
+      </c>
+      <c r="D87" t="n">
+        <v>19207.1746621323</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="3" t="n">
+        <v>45925</v>
+      </c>
+      <c r="B88" t="n">
+        <v>16693.83873605306</v>
+      </c>
+      <c r="C88" t="n">
+        <v>13778.68444898678</v>
+      </c>
+      <c r="D88" t="n">
+        <v>18723.32920475997</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="3" t="n">
+        <v>45926</v>
+      </c>
+      <c r="B89" t="n">
+        <v>16356.02142286318</v>
+      </c>
+      <c r="C89" t="n">
+        <v>13074.92532476954</v>
+      </c>
+      <c r="D89" t="n">
+        <v>18316.44210591776</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="3" t="n">
+        <v>45927</v>
+      </c>
+      <c r="B90" t="n">
+        <v>5516.5</v>
+      </c>
+      <c r="C90" t="n">
+        <v>2779.789098592216</v>
+      </c>
+      <c r="D90" t="n">
+        <v>8078.367891887745</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="3" t="n">
+        <v>45928</v>
+      </c>
+      <c r="B91" t="n">
+        <v>3222.523975439904</v>
+      </c>
+      <c r="C91" t="n">
+        <v>613.0936671681194</v>
+      </c>
+      <c r="D91" t="n">
+        <v>5630.886290547627</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="3" t="n">
+        <v>45929</v>
+      </c>
+      <c r="B92" t="n">
+        <v>17207.05079002523</v>
+      </c>
+      <c r="C92" t="n">
+        <v>14991.38732620473</v>
+      </c>
+      <c r="D92" t="n">
+        <v>19916.44890350393</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="3" t="n">
+        <v>45930</v>
+      </c>
+      <c r="B93" t="n">
+        <v>17231.47194709834</v>
+      </c>
+      <c r="C93" t="n">
+        <v>14246.86663836447</v>
+      </c>
+      <c r="D93" t="n">
+        <v>19249.20500241424</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="3" t="n">
+        <v>45931</v>
+      </c>
+      <c r="B94" t="n">
+        <v>17800.9889778367</v>
+      </c>
+      <c r="C94" t="n">
+        <v>14582.86304454341</v>
+      </c>
+      <c r="D94" t="n">
+        <v>19640.60404687218</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="3" t="n">
+        <v>45932</v>
+      </c>
+      <c r="B95" t="n">
+        <v>17883.81301312432</v>
+      </c>
+      <c r="C95" t="n">
+        <v>14071.32469677033</v>
+      </c>
+      <c r="D95" t="n">
+        <v>19526.90386854081</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="3" t="n">
+        <v>45933</v>
+      </c>
+      <c r="B96" t="n">
+        <v>17201.34329769691</v>
+      </c>
+      <c r="C96" t="n">
+        <v>13870.46662700927</v>
+      </c>
+      <c r="D96" t="n">
+        <v>18610.95922619705</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="3" t="n">
+        <v>45934</v>
+      </c>
+      <c r="B97" t="n">
+        <v>5516.5</v>
+      </c>
+      <c r="C97" t="n">
+        <v>3167.669521784149</v>
+      </c>
+      <c r="D97" t="n">
+        <v>8656.264543818696</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="3" t="n">
+        <v>45935</v>
+      </c>
+      <c r="B98" t="n">
+        <v>4134.322658372286</v>
+      </c>
+      <c r="C98" t="n">
+        <v>998.851235579455</v>
+      </c>
+      <c r="D98" t="n">
+        <v>6183.584364368244</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="3" t="n">
+        <v>45936</v>
+      </c>
+      <c r="B99" t="n">
+        <v>18384.63191403141</v>
+      </c>
+      <c r="C99" t="n">
+        <v>15476.87391423538</v>
+      </c>
+      <c r="D99" t="n">
+        <v>20544.20632007744</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="3" t="n">
+        <v>45937</v>
+      </c>
+      <c r="B100" t="n">
+        <v>17504.83991511531</v>
+      </c>
+      <c r="C100" t="n">
+        <v>14604.77405834037</v>
+      </c>
+      <c r="D100" t="n">
+        <v>19996.57029215392</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="3" t="n">
+        <v>45938</v>
+      </c>
+      <c r="B101" t="n">
+        <v>17786.4321743464</v>
+      </c>
+      <c r="C101" t="n">
+        <v>14229.93388156821</v>
+      </c>
+      <c r="D101" t="n">
+        <v>19679.33500814022</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="3" t="n">
+        <v>45939</v>
+      </c>
+      <c r="B102" t="n">
+        <v>17502.93745270911</v>
+      </c>
+      <c r="C102" t="n">
+        <v>14115.5822024429</v>
+      </c>
+      <c r="D102" t="n">
+        <v>19164.03318149094</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="3" t="n">
+        <v>45940</v>
+      </c>
+      <c r="B103" t="n">
+        <v>17158.35032291846</v>
+      </c>
+      <c r="C103" t="n">
+        <v>13416.52522017616</v>
+      </c>
+      <c r="D103" t="n">
+        <v>18738.90491784826</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="3" t="n">
+        <v>45941</v>
+      </c>
+      <c r="B104" t="n">
+        <v>5516.5</v>
+      </c>
+      <c r="C104" t="n">
+        <v>3203.942814389955</v>
+      </c>
+      <c r="D104" t="n">
+        <v>8168.488143881135</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="3" t="n">
+        <v>45942</v>
+      </c>
+      <c r="B105" t="n">
+        <v>3842.24847670908</v>
+      </c>
+      <c r="C105" t="n">
+        <v>822.6838771752964</v>
+      </c>
+      <c r="D105" t="n">
+        <v>5879.701137766302</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="3" t="n">
+        <v>45943</v>
+      </c>
+      <c r="B106" t="n">
+        <v>18667.74471394253</v>
+      </c>
+      <c r="C106" t="n">
+        <v>15272.13251628693</v>
+      </c>
+      <c r="D106" t="n">
+        <v>20442.45945066062</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="3" t="n">
+        <v>45944</v>
+      </c>
+      <c r="B107" t="n">
+        <v>17904.28066565382</v>
+      </c>
+      <c r="C107" t="n">
+        <v>14531.68151258572</v>
+      </c>
+      <c r="D107" t="n">
+        <v>19753.9772308313</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="3" t="n">
+        <v>45945</v>
+      </c>
+      <c r="B108" t="n">
+        <v>18347.16126454375</v>
+      </c>
+      <c r="C108" t="n">
+        <v>14757.72183212763</v>
+      </c>
+      <c r="D108" t="n">
+        <v>19880.62877313174</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="3" t="n">
+        <v>45946</v>
+      </c>
+      <c r="B109" t="n">
+        <v>18165.56793848547</v>
+      </c>
+      <c r="C109" t="n">
+        <v>14473.34171262019</v>
+      </c>
+      <c r="D109" t="n">
+        <v>19531.83835380387</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="3" t="n">
+        <v>45947</v>
+      </c>
+      <c r="B110" t="n">
+        <v>17817.73863714902</v>
+      </c>
+      <c r="C110" t="n">
+        <v>13885.16070107016</v>
+      </c>
+      <c r="D110" t="n">
+        <v>18989.34953221227</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="3" t="n">
+        <v>45948</v>
+      </c>
+      <c r="B111" t="n">
+        <v>5516.5</v>
+      </c>
+      <c r="C111" t="n">
+        <v>3446.744828151284</v>
+      </c>
+      <c r="D111" t="n">
+        <v>8520.156779825722</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="3" t="n">
+        <v>45949</v>
+      </c>
+      <c r="B112" t="n">
+        <v>4083.411660519204</v>
+      </c>
+      <c r="C112" t="n">
+        <v>1063.226994367629</v>
+      </c>
+      <c r="D112" t="n">
+        <v>6205.979139170779</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="3" t="n">
+        <v>45950</v>
+      </c>
+      <c r="B113" t="n">
+        <v>19319.7717578795</v>
+      </c>
+      <c r="C113" t="n">
+        <v>15638.42903691863</v>
+      </c>
+      <c r="D113" t="n">
+        <v>20817.44431282474</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="3" t="n">
+        <v>45951</v>
+      </c>
+      <c r="B114" t="n">
+        <v>18340.97878935293</v>
+      </c>
+      <c r="C114" t="n">
+        <v>14609.25119027388</v>
+      </c>
+      <c r="D114" t="n">
+        <v>19881.91293140073</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="3" t="n">
+        <v>45952</v>
+      </c>
+      <c r="B115" t="n">
+        <v>18530.86649420663</v>
+      </c>
+      <c r="C115" t="n">
+        <v>14614.86378303061</v>
+      </c>
+      <c r="D115" t="n">
+        <v>19703.00299444515</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="3" t="n">
+        <v>45953</v>
+      </c>
+      <c r="B116" t="n">
+        <v>18379.31128378416</v>
+      </c>
+      <c r="C116" t="n">
+        <v>14235.67575686909</v>
+      </c>
+      <c r="D116" t="n">
+        <v>19444.60550210549</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="3" t="n">
+        <v>45954</v>
+      </c>
+      <c r="B117" t="n">
+        <v>18017.51471455946</v>
+      </c>
+      <c r="C117" t="n">
+        <v>13615.09571390369</v>
+      </c>
+      <c r="D117" t="n">
+        <v>18927.13317810585</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="3" t="n">
+        <v>45955</v>
+      </c>
+      <c r="B118" t="n">
+        <v>5516.5</v>
+      </c>
+      <c r="C118" t="n">
+        <v>3213.478873273746</v>
+      </c>
+      <c r="D118" t="n">
+        <v>8295.634001280247</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="3" t="n">
+        <v>45956</v>
+      </c>
+      <c r="B119" t="n">
+        <v>3987.579248340841</v>
+      </c>
+      <c r="C119" t="n">
+        <v>1076.121198551439</v>
+      </c>
+      <c r="D119" t="n">
+        <v>5706.748723911493</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="3" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B120" t="n">
+        <v>18874.22233556556</v>
+      </c>
+      <c r="C120" t="n">
+        <v>15535.56404939214</v>
+      </c>
+      <c r="D120" t="n">
+        <v>20607.53540689523</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="3" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B121" t="n">
+        <v>18015.14395408444</v>
+      </c>
+      <c r="C121" t="n">
+        <v>14703.38918952293</v>
+      </c>
+      <c r="D121" t="n">
+        <v>19993.28031044283</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="3" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B122" t="n">
+        <v>18078.90579767696</v>
+      </c>
+      <c r="C122" t="n">
+        <v>14740.48233045276</v>
+      </c>
+      <c r="D122" t="n">
+        <v>19781.68339087772</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="3" t="n">
+        <v>45960</v>
+      </c>
+      <c r="B123" t="n">
+        <v>18346.46896349753</v>
+      </c>
+      <c r="C123" t="n">
+        <v>14238.706536793</v>
+      </c>
+      <c r="D123" t="n">
+        <v>19641.90765973331</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="3" t="n">
+        <v>45961</v>
+      </c>
+      <c r="B124" t="n">
+        <v>18168.29203977913</v>
+      </c>
+      <c r="C124" t="n">
+        <v>13826.39810548579</v>
+      </c>
+      <c r="D124" t="n">
+        <v>18909.23016352559</v>
       </c>
     </row>
   </sheetData>
@@ -8518,7 +12788,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D63"/>
+  <dimension ref="A1:D124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8556,10 +12826,10 @@
         <v>4596.008221998508</v>
       </c>
       <c r="C2" t="n">
-        <v>3791.856814194087</v>
+        <v>3668.049166529141</v>
       </c>
       <c r="D2" t="n">
-        <v>5406.160000000005</v>
+        <v>5543.644828737406</v>
       </c>
     </row>
     <row r="3">
@@ -8570,10 +12840,10 @@
         <v>4553.324896870882</v>
       </c>
       <c r="C3" t="n">
-        <v>3714.742261676902</v>
+        <v>3722.468966003866</v>
       </c>
       <c r="D3" t="n">
-        <v>5406.160000000005</v>
+        <v>5559.134639383406</v>
       </c>
     </row>
     <row r="4">
@@ -8584,10 +12854,10 @@
         <v>4538.995486013846</v>
       </c>
       <c r="C4" t="n">
-        <v>3482.351027887234</v>
+        <v>3501.555341101845</v>
       </c>
       <c r="D4" t="n">
-        <v>5388.730489794754</v>
+        <v>5369.526176580144</v>
       </c>
     </row>
     <row r="5">
@@ -8598,10 +12868,10 @@
         <v>4083.564913234229</v>
       </c>
       <c r="C5" t="n">
-        <v>3392.131135069932</v>
+        <v>3408.777691717703</v>
       </c>
       <c r="D5" t="n">
-        <v>5222.264835197353</v>
+        <v>5205.618278549582</v>
       </c>
     </row>
     <row r="6">
@@ -8612,10 +12882,10 @@
         <v>780.1871556809897</v>
       </c>
       <c r="C6" t="n">
-        <v>246.4766486058304</v>
+        <v>307.0178619248467</v>
       </c>
       <c r="D6" t="n">
-        <v>2150.073199865524</v>
+        <v>2089.531986546508</v>
       </c>
     </row>
     <row r="7">
@@ -8629,7 +12899,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1352.112076651623</v>
+        <v>1337.583556097842</v>
       </c>
     </row>
     <row r="8">
@@ -8640,10 +12910,10 @@
         <v>4340.809409971252</v>
       </c>
       <c r="C8" t="n">
-        <v>3750.868676382132</v>
+        <v>3805.557876967843</v>
       </c>
       <c r="D8" t="n">
-        <v>5406.160000000005</v>
+        <v>5512.375029888723</v>
       </c>
     </row>
     <row r="9">
@@ -8654,10 +12924,10 @@
         <v>4118.239477321542</v>
       </c>
       <c r="C9" t="n">
-        <v>3556.874421160241</v>
+        <v>3590.651877271196</v>
       </c>
       <c r="D9" t="n">
-        <v>5406.160000000005</v>
+        <v>5408.789052469545</v>
       </c>
     </row>
     <row r="10">
@@ -8668,10 +12938,10 @@
         <v>4174.791045913539</v>
       </c>
       <c r="C10" t="n">
-        <v>3682.46063435547</v>
+        <v>3605.309985246231</v>
       </c>
       <c r="D10" t="n">
-        <v>5386.995725049734</v>
+        <v>5464.146374158972</v>
       </c>
     </row>
     <row r="11">
@@ -8682,10 +12952,10 @@
         <v>3872.093869828337</v>
       </c>
       <c r="C11" t="n">
-        <v>3455.490528529268</v>
+        <v>3435.042242059196</v>
       </c>
       <c r="D11" t="n">
-        <v>5201.88757977975</v>
+        <v>5222.335866249821</v>
       </c>
     </row>
     <row r="12">
@@ -8696,10 +12966,10 @@
         <v>3976.272068763237</v>
       </c>
       <c r="C12" t="n">
-        <v>3310.733726672412</v>
+        <v>3298.079850057453</v>
       </c>
       <c r="D12" t="n">
-        <v>5088.935929652891</v>
+        <v>5101.58980626785</v>
       </c>
     </row>
     <row r="13">
@@ -8710,10 +12980,10 @@
         <v>618.964726804094</v>
       </c>
       <c r="C13" t="n">
-        <v>172.4230850172742</v>
+        <v>210.0930110202326</v>
       </c>
       <c r="D13" t="n">
-        <v>1987.779806090914</v>
+        <v>1950.109880087955</v>
       </c>
     </row>
     <row r="14">
@@ -8727,7 +12997,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1282.440706692993</v>
+        <v>1289.64160692669</v>
       </c>
     </row>
     <row r="15">
@@ -8738,10 +13008,10 @@
         <v>4223.062559823968</v>
       </c>
       <c r="C15" t="n">
-        <v>3605.957374320001</v>
+        <v>3635.884624924031</v>
       </c>
       <c r="D15" t="n">
-        <v>5406.160000000005</v>
+        <v>5469.345536227811</v>
       </c>
     </row>
     <row r="16">
@@ -8752,10 +13022,10 @@
         <v>4200.419994559752</v>
       </c>
       <c r="C16" t="n">
-        <v>3710.350396750337</v>
+        <v>3809.97244564955</v>
       </c>
       <c r="D16" t="n">
-        <v>5406.160000000005</v>
+        <v>5465.509022962142</v>
       </c>
     </row>
     <row r="17">
@@ -8766,10 +13036,10 @@
         <v>4268.629769926471</v>
       </c>
       <c r="C17" t="n">
-        <v>3729.165678027083</v>
+        <v>3753.167147840385</v>
       </c>
       <c r="D17" t="n">
-        <v>5406.160000000005</v>
+        <v>5592.676254317244</v>
       </c>
     </row>
     <row r="18">
@@ -8780,10 +13050,10 @@
         <v>4120.664777410275</v>
       </c>
       <c r="C18" t="n">
-        <v>3545.631338677507</v>
+        <v>3547.848128147305</v>
       </c>
       <c r="D18" t="n">
-        <v>5386.818333330542</v>
+        <v>5384.601543860745</v>
       </c>
     </row>
     <row r="19">
@@ -8794,10 +13064,10 @@
         <v>4003.624153220389</v>
       </c>
       <c r="C19" t="n">
-        <v>3435.451978473087</v>
+        <v>3405.872667412124</v>
       </c>
       <c r="D19" t="n">
-        <v>5238.507021327065</v>
+        <v>5268.086332388028</v>
       </c>
     </row>
     <row r="20">
@@ -8808,10 +13078,10 @@
         <v>670.3445288625151</v>
       </c>
       <c r="C20" t="n">
-        <v>255.6549898718019</v>
+        <v>313.1079989186488</v>
       </c>
       <c r="D20" t="n">
-        <v>2157.457285626666</v>
+        <v>2100.004276579819</v>
       </c>
     </row>
     <row r="21">
@@ -8825,7 +13095,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>1424.10001733168</v>
+        <v>1332.528758647362</v>
       </c>
     </row>
     <row r="22">
@@ -8836,10 +13106,10 @@
         <v>4204.66222216149</v>
       </c>
       <c r="C22" t="n">
-        <v>3697.126709659782</v>
+        <v>3573.657258483115</v>
       </c>
       <c r="D22" t="n">
-        <v>5406.160000000005</v>
+        <v>5562.896616992208</v>
       </c>
     </row>
     <row r="23">
@@ -8850,10 +13120,10 @@
         <v>4127.1211410718</v>
       </c>
       <c r="C23" t="n">
-        <v>3638.127002363289</v>
+        <v>3614.987163977785</v>
       </c>
       <c r="D23" t="n">
-        <v>5406.160000000005</v>
+        <v>5446.556448732221</v>
       </c>
     </row>
     <row r="24">
@@ -8864,10 +13134,10 @@
         <v>4195.383795694087</v>
       </c>
       <c r="C24" t="n">
-        <v>3656.112661406817</v>
+        <v>3700.710220599777</v>
       </c>
       <c r="D24" t="n">
-        <v>5406.160000000005</v>
+        <v>5431.30114520246</v>
       </c>
     </row>
     <row r="25">
@@ -8878,10 +13148,10 @@
         <v>4045.981755417285</v>
       </c>
       <c r="C25" t="n">
-        <v>3484.171835736652</v>
+        <v>3505.01774972193</v>
       </c>
       <c r="D25" t="n">
-        <v>5232.8896365237</v>
+        <v>5212.043722538421</v>
       </c>
     </row>
     <row r="26">
@@ -8892,10 +13162,10 @@
         <v>3894.610037829617</v>
       </c>
       <c r="C26" t="n">
-        <v>3285.782675033388</v>
+        <v>3306.223858488047</v>
       </c>
       <c r="D26" t="n">
-        <v>5171.765220450065</v>
+        <v>5151.324036995406</v>
       </c>
     </row>
     <row r="27">
@@ -8906,10 +13176,10 @@
         <v>550.5200612361684</v>
       </c>
       <c r="C27" t="n">
-        <v>127.7133705102249</v>
+        <v>142.8029740412468</v>
       </c>
       <c r="D27" t="n">
-        <v>2047.367157235549</v>
+        <v>2032.277553704528</v>
       </c>
     </row>
     <row r="28">
@@ -8923,7 +13193,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>1238.809441719601</v>
+        <v>1268.451573654582</v>
       </c>
     </row>
     <row r="29">
@@ -8934,10 +13204,10 @@
         <v>4163.362348361255</v>
       </c>
       <c r="C29" t="n">
-        <v>3645.261783417803</v>
+        <v>3699.873325642327</v>
       </c>
       <c r="D29" t="n">
-        <v>5406.160000000005</v>
+        <v>5468.004264146588</v>
       </c>
     </row>
     <row r="30">
@@ -8948,10 +13218,10 @@
         <v>4164.200217576124</v>
       </c>
       <c r="C30" t="n">
-        <v>3646.309124508351</v>
+        <v>3654.831071989352</v>
       </c>
       <c r="D30" t="n">
-        <v>5406.160000000005</v>
+        <v>5437.763882205863</v>
       </c>
     </row>
     <row r="31">
@@ -8962,10 +13232,10 @@
         <v>4220.651819749051</v>
       </c>
       <c r="C31" t="n">
-        <v>3674.546185143869</v>
+        <v>3669.733698341536</v>
       </c>
       <c r="D31" t="n">
-        <v>5406.160000000005</v>
+        <v>5493.555170648754</v>
       </c>
     </row>
     <row r="32">
@@ -8976,10 +13246,10 @@
         <v>3968.259591041285</v>
       </c>
       <c r="C32" t="n">
-        <v>3432.43951288942</v>
+        <v>3438.426170897446</v>
       </c>
       <c r="D32" t="n">
-        <v>5314.463641361119</v>
+        <v>5308.476983353092</v>
       </c>
     </row>
     <row r="33">
@@ -8990,10 +13260,10 @@
         <v>3983.608257281845</v>
       </c>
       <c r="C33" t="n">
-        <v>3380.643543585984</v>
+        <v>3309.251771932536</v>
       </c>
       <c r="D33" t="n">
-        <v>5181.291843048019</v>
+        <v>5252.683614701467</v>
       </c>
     </row>
     <row r="34">
@@ -9004,10 +13274,10 @@
         <v>562.2416158914341</v>
       </c>
       <c r="C34" t="n">
-        <v>253.6692782715615</v>
+        <v>210.0889593080985</v>
       </c>
       <c r="D34" t="n">
-        <v>2004.335193745682</v>
+        <v>2047.915512709145</v>
       </c>
     </row>
     <row r="35">
@@ -9021,7 +13291,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>1220.913495231801</v>
+        <v>1366.951734442983</v>
       </c>
     </row>
     <row r="36">
@@ -9032,10 +13302,10 @@
         <v>4324.979365172341</v>
       </c>
       <c r="C36" t="n">
-        <v>3701.234771873983</v>
+        <v>3716.233942247274</v>
       </c>
       <c r="D36" t="n">
-        <v>5406.160000000005</v>
+        <v>5558.525996593502</v>
       </c>
     </row>
     <row r="37">
@@ -9046,10 +13316,10 @@
         <v>4307.971886099511</v>
       </c>
       <c r="C37" t="n">
-        <v>3740.375121793075</v>
+        <v>3672.390873435814</v>
       </c>
       <c r="D37" t="n">
-        <v>5406.160000000005</v>
+        <v>5526.850811360864</v>
       </c>
     </row>
     <row r="38">
@@ -9060,10 +13330,10 @@
         <v>4353.145858188903</v>
       </c>
       <c r="C38" t="n">
-        <v>3707.935490614372</v>
+        <v>3634.271054783821</v>
       </c>
       <c r="D38" t="n">
-        <v>5406.160000000005</v>
+        <v>5635.927460910391</v>
       </c>
     </row>
     <row r="39">
@@ -9074,10 +13344,10 @@
         <v>4229.589481196221</v>
       </c>
       <c r="C39" t="n">
-        <v>3482.113198037235</v>
+        <v>3488.732326430358</v>
       </c>
       <c r="D39" t="n">
-        <v>5370.300536083722</v>
+        <v>5363.681407690599</v>
       </c>
     </row>
     <row r="40">
@@ -9088,10 +13358,10 @@
         <v>3955.295844134444</v>
       </c>
       <c r="C40" t="n">
-        <v>3255.09819267929</v>
+        <v>3276.042248547982</v>
       </c>
       <c r="D40" t="n">
-        <v>5088.156184798581</v>
+        <v>5067.21212892989</v>
       </c>
     </row>
     <row r="41">
@@ -9102,10 +13372,10 @@
         <v>773.9448087596536</v>
       </c>
       <c r="C41" t="n">
-        <v>103.8206776874722</v>
+        <v>154.6968787568859</v>
       </c>
       <c r="D41" t="n">
-        <v>1913.882141736132</v>
+        <v>1863.005940666718</v>
       </c>
     </row>
     <row r="42">
@@ -9119,7 +13389,7 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>1206.460990325576</v>
+        <v>1165.31527976581</v>
       </c>
     </row>
     <row r="43">
@@ -9130,10 +13400,10 @@
         <v>4466.250696589909</v>
       </c>
       <c r="C43" t="n">
-        <v>3609.237726769374</v>
+        <v>3627.523242556346</v>
       </c>
       <c r="D43" t="n">
-        <v>5406.160000000005</v>
+        <v>5430.5792553598</v>
       </c>
     </row>
     <row r="44">
@@ -9144,10 +13414,10 @@
         <v>4353.10810879005</v>
       </c>
       <c r="C44" t="n">
-        <v>3532.891673038864</v>
+        <v>3545.364600822977</v>
       </c>
       <c r="D44" t="n">
-        <v>5406.160000000005</v>
+        <v>5436.82692803642</v>
       </c>
     </row>
     <row r="45">
@@ -9158,10 +13428,10 @@
         <v>4447.497771412964</v>
       </c>
       <c r="C45" t="n">
-        <v>3570.317939256734</v>
+        <v>3589.163297255878</v>
       </c>
       <c r="D45" t="n">
-        <v>5406.160000000005</v>
+        <v>5464.090882044658</v>
       </c>
     </row>
     <row r="46">
@@ -9172,10 +13442,10 @@
         <v>4362.499803357186</v>
       </c>
       <c r="C46" t="n">
-        <v>3407.681795993103</v>
+        <v>3397.043252611947</v>
       </c>
       <c r="D46" t="n">
-        <v>5226.23143834578</v>
+        <v>5236.869981726936</v>
       </c>
     </row>
     <row r="47">
@@ -9186,10 +13456,10 @@
         <v>4293.468994741252</v>
       </c>
       <c r="C47" t="n">
-        <v>3359.823768501699</v>
+        <v>3389.66505474832</v>
       </c>
       <c r="D47" t="n">
-        <v>5260.50441873471</v>
+        <v>5230.663132488089</v>
       </c>
     </row>
     <row r="48">
@@ -9200,10 +13470,10 @@
         <v>887.2460645421129</v>
       </c>
       <c r="C48" t="n">
-        <v>217.167373009584</v>
+        <v>212.7568799375299</v>
       </c>
       <c r="D48" t="n">
-        <v>2056.229297090267</v>
+        <v>2060.639790162321</v>
       </c>
     </row>
     <row r="49">
@@ -9217,7 +13487,7 @@
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>1289.784242208302</v>
+        <v>1244.20666161494</v>
       </c>
     </row>
     <row r="50">
@@ -9228,10 +13498,10 @@
         <v>4576.226757307307</v>
       </c>
       <c r="C50" t="n">
-        <v>3775.648462997911</v>
+        <v>3795.677351913709</v>
       </c>
       <c r="D50" t="n">
-        <v>5406.160000000005</v>
+        <v>5542.244577007546</v>
       </c>
     </row>
     <row r="51">
@@ -9242,10 +13512,10 @@
         <v>4504.8701079129</v>
       </c>
       <c r="C51" t="n">
-        <v>3746.377749665971</v>
+        <v>3777.937741204103</v>
       </c>
       <c r="D51" t="n">
-        <v>5406.160000000005</v>
+        <v>5483.921188000602</v>
       </c>
     </row>
     <row r="52">
@@ -9256,10 +13526,10 @@
         <v>4614.569676373658</v>
       </c>
       <c r="C52" t="n">
-        <v>3742.322990334872</v>
+        <v>3774.264770580666</v>
       </c>
       <c r="D52" t="n">
-        <v>5406.160000000005</v>
+        <v>5559.003312940575</v>
       </c>
     </row>
     <row r="53">
@@ -9270,10 +13540,10 @@
         <v>4367.568177295603</v>
       </c>
       <c r="C53" t="n">
-        <v>3441.42214081876</v>
+        <v>3428.186983635829</v>
       </c>
       <c r="D53" t="n">
-        <v>5221.747661038072</v>
+        <v>5234.982818221002</v>
       </c>
     </row>
     <row r="54">
@@ -9284,10 +13554,10 @@
         <v>4232.143478696706</v>
       </c>
       <c r="C54" t="n">
-        <v>3259.424422594222</v>
+        <v>3260.969355126772</v>
       </c>
       <c r="D54" t="n">
-        <v>5140.537965097041</v>
+        <v>5138.993032564491</v>
       </c>
     </row>
     <row r="55">
@@ -9298,10 +13568,10 @@
         <v>815.1101123450806</v>
       </c>
       <c r="C55" t="n">
-        <v>91.81328079970584</v>
+        <v>115.1273840434981</v>
       </c>
       <c r="D55" t="n">
-        <v>1939.596946331862</v>
+        <v>1916.282843088069</v>
       </c>
     </row>
     <row r="56">
@@ -9315,7 +13585,7 @@
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>1132.648168994726</v>
+        <v>1147.176913960314</v>
       </c>
     </row>
     <row r="57">
@@ -9326,10 +13596,10 @@
         <v>4475.561874871219</v>
       </c>
       <c r="C57" t="n">
-        <v>3571.695182346072</v>
+        <v>3566.639053240051</v>
       </c>
       <c r="D57" t="n">
-        <v>5406.160000000005</v>
+        <v>5552.940644378363</v>
       </c>
     </row>
     <row r="58">
@@ -9340,10 +13610,10 @@
         <v>4397.070025199421</v>
       </c>
       <c r="C58" t="n">
-        <v>3631.030836023253</v>
+        <v>3602.574301580978</v>
       </c>
       <c r="D58" t="n">
-        <v>5406.160000000005</v>
+        <v>5440.549681312982</v>
       </c>
     </row>
     <row r="59">
@@ -9354,10 +13624,10 @@
         <v>4536.716105801924</v>
       </c>
       <c r="C59" t="n">
-        <v>3629.828418117958</v>
+        <v>3632.093439234897</v>
       </c>
       <c r="D59" t="n">
-        <v>5406.160000000005</v>
+        <v>5482.545517516655</v>
       </c>
     </row>
     <row r="60">
@@ -9368,10 +13638,10 @@
         <v>4325.234651890324</v>
       </c>
       <c r="C60" t="n">
-        <v>3462.609741335394</v>
+        <v>3467.885385898015</v>
       </c>
       <c r="D60" t="n">
-        <v>5229.816628027529</v>
+        <v>5224.540983464909</v>
       </c>
     </row>
     <row r="61">
@@ -9382,10 +13652,10 @@
         <v>4313.11545653418</v>
       </c>
       <c r="C61" t="n">
-        <v>3332.128094193354</v>
+        <v>3345.595464894654</v>
       </c>
       <c r="D61" t="n">
-        <v>5096.188298611335</v>
+        <v>5082.720927910035</v>
       </c>
     </row>
     <row r="62">
@@ -9396,10 +13666,10 @@
         <v>833.0421675153731</v>
       </c>
       <c r="C62" t="n">
-        <v>62.22168445327444</v>
+        <v>129.1612457401014</v>
       </c>
       <c r="D62" t="n">
-        <v>1976.042246524737</v>
+        <v>1909.10268523791</v>
       </c>
     </row>
     <row r="63">
@@ -9413,7 +13683,861 @@
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>1209.639244993994</v>
+        <v>1169.05250605199</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="3" t="n">
+        <v>45901</v>
+      </c>
+      <c r="B64" t="n">
+        <v>4733.010876228879</v>
+      </c>
+      <c r="C64" t="n">
+        <v>3824.128298507909</v>
+      </c>
+      <c r="D64" t="n">
+        <v>5513.202032441061</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="3" t="n">
+        <v>45902</v>
+      </c>
+      <c r="B65" t="n">
+        <v>4300.633989520095</v>
+      </c>
+      <c r="C65" t="n">
+        <v>3698.250002915617</v>
+      </c>
+      <c r="D65" t="n">
+        <v>5562.441987355043</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="3" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B66" t="n">
+        <v>4459.380988974571</v>
+      </c>
+      <c r="C66" t="n">
+        <v>3743.444871946468</v>
+      </c>
+      <c r="D66" t="n">
+        <v>5589.078000778065</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="3" t="n">
+        <v>45904</v>
+      </c>
+      <c r="B67" t="n">
+        <v>4332.937771088153</v>
+      </c>
+      <c r="C67" t="n">
+        <v>3532.539602995711</v>
+      </c>
+      <c r="D67" t="n">
+        <v>5376.424608003837</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="3" t="n">
+        <v>45905</v>
+      </c>
+      <c r="B68" t="n">
+        <v>4240.304599241127</v>
+      </c>
+      <c r="C68" t="n">
+        <v>3387.240795757816</v>
+      </c>
+      <c r="D68" t="n">
+        <v>5256.800623183422</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="3" t="n">
+        <v>45906</v>
+      </c>
+      <c r="B69" t="n">
+        <v>810.1237960906226</v>
+      </c>
+      <c r="C69" t="n">
+        <v>179.3440209452329</v>
+      </c>
+      <c r="D69" t="n">
+        <v>2053.234381782887</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="3" t="n">
+        <v>45907</v>
+      </c>
+      <c r="B70" t="n">
+        <v>266.3225962536835</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0</v>
+      </c>
+      <c r="D70" t="n">
+        <v>1236.789742336779</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="3" t="n">
+        <v>45908</v>
+      </c>
+      <c r="B71" t="n">
+        <v>4443.031250223083</v>
+      </c>
+      <c r="C71" t="n">
+        <v>3691.914300748992</v>
+      </c>
+      <c r="D71" t="n">
+        <v>5425.174841542876</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="3" t="n">
+        <v>45909</v>
+      </c>
+      <c r="B72" t="n">
+        <v>4386.941091646529</v>
+      </c>
+      <c r="C72" t="n">
+        <v>3609.294081535586</v>
+      </c>
+      <c r="D72" t="n">
+        <v>5430.764005077785</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="3" t="n">
+        <v>45910</v>
+      </c>
+      <c r="B73" t="n">
+        <v>4487.231776929668</v>
+      </c>
+      <c r="C73" t="n">
+        <v>3580.492762835041</v>
+      </c>
+      <c r="D73" t="n">
+        <v>5531.502025765505</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="3" t="n">
+        <v>45911</v>
+      </c>
+      <c r="B74" t="n">
+        <v>4427.869036004489</v>
+      </c>
+      <c r="C74" t="n">
+        <v>3440.850899569992</v>
+      </c>
+      <c r="D74" t="n">
+        <v>5246.029063918479</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="3" t="n">
+        <v>45912</v>
+      </c>
+      <c r="B75" t="n">
+        <v>4275.551270393945</v>
+      </c>
+      <c r="C75" t="n">
+        <v>3276.529966119877</v>
+      </c>
+      <c r="D75" t="n">
+        <v>5144.404300742231</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="3" t="n">
+        <v>45913</v>
+      </c>
+      <c r="B76" t="n">
+        <v>860.6966353993272</v>
+      </c>
+      <c r="C76" t="n">
+        <v>147.7466028994813</v>
+      </c>
+      <c r="D76" t="n">
+        <v>1840.104004324955</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="3" t="n">
+        <v>45914</v>
+      </c>
+      <c r="B77" t="n">
+        <v>195.6342692500198</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0</v>
+      </c>
+      <c r="D77" t="n">
+        <v>1076.368255289714</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="3" t="n">
+        <v>45915</v>
+      </c>
+      <c r="B78" t="n">
+        <v>4751.980998655266</v>
+      </c>
+      <c r="C78" t="n">
+        <v>3759.527254592255</v>
+      </c>
+      <c r="D78" t="n">
+        <v>5640.536732464371</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="3" t="n">
+        <v>45916</v>
+      </c>
+      <c r="B79" t="n">
+        <v>4716.010656048263</v>
+      </c>
+      <c r="C79" t="n">
+        <v>3770.994294224096</v>
+      </c>
+      <c r="D79" t="n">
+        <v>5551.886606495476</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="3" t="n">
+        <v>45917</v>
+      </c>
+      <c r="B80" t="n">
+        <v>4785.180991283799</v>
+      </c>
+      <c r="C80" t="n">
+        <v>3806.841872287759</v>
+      </c>
+      <c r="D80" t="n">
+        <v>5588.322234303276</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="3" t="n">
+        <v>45918</v>
+      </c>
+      <c r="B81" t="n">
+        <v>4660.471088228268</v>
+      </c>
+      <c r="C81" t="n">
+        <v>3582.810080594097</v>
+      </c>
+      <c r="D81" t="n">
+        <v>5385.923721839002</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="3" t="n">
+        <v>45919</v>
+      </c>
+      <c r="B82" t="n">
+        <v>4523.758527505695</v>
+      </c>
+      <c r="C82" t="n">
+        <v>3467.311567318088</v>
+      </c>
+      <c r="D82" t="n">
+        <v>5234.694318259709</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="3" t="n">
+        <v>45920</v>
+      </c>
+      <c r="B83" t="n">
+        <v>1034.68572998349</v>
+      </c>
+      <c r="C83" t="n">
+        <v>244.6206907311957</v>
+      </c>
+      <c r="D83" t="n">
+        <v>2002.921576120549</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="3" t="n">
+        <v>45921</v>
+      </c>
+      <c r="B84" t="n">
+        <v>251.5032751555304</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0</v>
+      </c>
+      <c r="D84" t="n">
+        <v>1194.00889706809</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="3" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B85" t="n">
+        <v>4756.511646224329</v>
+      </c>
+      <c r="C85" t="n">
+        <v>3624.947027857552</v>
+      </c>
+      <c r="D85" t="n">
+        <v>5553.190980167277</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="3" t="n">
+        <v>45923</v>
+      </c>
+      <c r="B86" t="n">
+        <v>4684.398641791467</v>
+      </c>
+      <c r="C86" t="n">
+        <v>3621.743752663457</v>
+      </c>
+      <c r="D86" t="n">
+        <v>5478.81845401518</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="3" t="n">
+        <v>45924</v>
+      </c>
+      <c r="B87" t="n">
+        <v>4752.962905472881</v>
+      </c>
+      <c r="C87" t="n">
+        <v>3749.896076991502</v>
+      </c>
+      <c r="D87" t="n">
+        <v>5423.055155096838</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="3" t="n">
+        <v>45925</v>
+      </c>
+      <c r="B88" t="n">
+        <v>4578.4679932386</v>
+      </c>
+      <c r="C88" t="n">
+        <v>3431.974085706196</v>
+      </c>
+      <c r="D88" t="n">
+        <v>5312.990678847176</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="3" t="n">
+        <v>45926</v>
+      </c>
+      <c r="B89" t="n">
+        <v>4425.86585217333</v>
+      </c>
+      <c r="C89" t="n">
+        <v>3322.979307399287</v>
+      </c>
+      <c r="D89" t="n">
+        <v>5154.234635716904</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="3" t="n">
+        <v>45927</v>
+      </c>
+      <c r="B90" t="n">
+        <v>1149.278616118342</v>
+      </c>
+      <c r="C90" t="n">
+        <v>84.33267388718352</v>
+      </c>
+      <c r="D90" t="n">
+        <v>1916.797007079968</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="3" t="n">
+        <v>45928</v>
+      </c>
+      <c r="B91" t="n">
+        <v>207.1035017854979</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0</v>
+      </c>
+      <c r="D91" t="n">
+        <v>1091.272729531072</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="3" t="n">
+        <v>45929</v>
+      </c>
+      <c r="B92" t="n">
+        <v>4757.302854361137</v>
+      </c>
+      <c r="C92" t="n">
+        <v>3681.314528598006</v>
+      </c>
+      <c r="D92" t="n">
+        <v>5527.347912302002</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="3" t="n">
+        <v>45930</v>
+      </c>
+      <c r="B93" t="n">
+        <v>4833.452818169769</v>
+      </c>
+      <c r="C93" t="n">
+        <v>3642.143855081759</v>
+      </c>
+      <c r="D93" t="n">
+        <v>5488.670411628872</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="3" t="n">
+        <v>45931</v>
+      </c>
+      <c r="B94" t="n">
+        <v>4981.670476625753</v>
+      </c>
+      <c r="C94" t="n">
+        <v>3868.601602993539</v>
+      </c>
+      <c r="D94" t="n">
+        <v>5653.875183998201</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="3" t="n">
+        <v>45932</v>
+      </c>
+      <c r="B95" t="n">
+        <v>4803.51360651806</v>
+      </c>
+      <c r="C95" t="n">
+        <v>3694.173331172237</v>
+      </c>
+      <c r="D95" t="n">
+        <v>5399.032104520134</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="3" t="n">
+        <v>45933</v>
+      </c>
+      <c r="B96" t="n">
+        <v>4822.797325953334</v>
+      </c>
+      <c r="C96" t="n">
+        <v>3428.701746764877</v>
+      </c>
+      <c r="D96" t="n">
+        <v>5396.001242544134</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="3" t="n">
+        <v>45934</v>
+      </c>
+      <c r="B97" t="n">
+        <v>1358.5</v>
+      </c>
+      <c r="C97" t="n">
+        <v>219.3830484362237</v>
+      </c>
+      <c r="D97" t="n">
+        <v>2107.886314902782</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="3" t="n">
+        <v>45935</v>
+      </c>
+      <c r="B98" t="n">
+        <v>650.5384509154883</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0</v>
+      </c>
+      <c r="D98" t="n">
+        <v>1312.327907644532</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="3" t="n">
+        <v>45936</v>
+      </c>
+      <c r="B99" t="n">
+        <v>5046.732331610247</v>
+      </c>
+      <c r="C99" t="n">
+        <v>3887.31246689833</v>
+      </c>
+      <c r="D99" t="n">
+        <v>5671.676427279195</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="3" t="n">
+        <v>45937</v>
+      </c>
+      <c r="B100" t="n">
+        <v>5029.271971408413</v>
+      </c>
+      <c r="C100" t="n">
+        <v>3836.729449709413</v>
+      </c>
+      <c r="D100" t="n">
+        <v>5644.289834904288</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="3" t="n">
+        <v>45938</v>
+      </c>
+      <c r="B101" t="n">
+        <v>4921.105873064622</v>
+      </c>
+      <c r="C101" t="n">
+        <v>3651.374119947042</v>
+      </c>
+      <c r="D101" t="n">
+        <v>5647.419169150951</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="3" t="n">
+        <v>45939</v>
+      </c>
+      <c r="B102" t="n">
+        <v>4658.353034907936</v>
+      </c>
+      <c r="C102" t="n">
+        <v>3480.45880432032</v>
+      </c>
+      <c r="D102" t="n">
+        <v>5387.506970085395</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="3" t="n">
+        <v>45940</v>
+      </c>
+      <c r="B103" t="n">
+        <v>4545.263195738362</v>
+      </c>
+      <c r="C103" t="n">
+        <v>3392.085909943543</v>
+      </c>
+      <c r="D103" t="n">
+        <v>5206.354513515603</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="3" t="n">
+        <v>45941</v>
+      </c>
+      <c r="B104" t="n">
+        <v>1283.121314941515</v>
+      </c>
+      <c r="C104" t="n">
+        <v>152.8727914131762</v>
+      </c>
+      <c r="D104" t="n">
+        <v>1926.513362639776</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="3" t="n">
+        <v>45942</v>
+      </c>
+      <c r="B105" t="n">
+        <v>546.5386523758716</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0</v>
+      </c>
+      <c r="D105" t="n">
+        <v>1166.918263666064</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="3" t="n">
+        <v>45943</v>
+      </c>
+      <c r="B106" t="n">
+        <v>5228.545114298196</v>
+      </c>
+      <c r="C106" t="n">
+        <v>3786.221129377105</v>
+      </c>
+      <c r="D106" t="n">
+        <v>5548.528767188038</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="3" t="n">
+        <v>45944</v>
+      </c>
+      <c r="B107" t="n">
+        <v>5126.991851180702</v>
+      </c>
+      <c r="C107" t="n">
+        <v>3663.985100042819</v>
+      </c>
+      <c r="D107" t="n">
+        <v>5592.402471947491</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="3" t="n">
+        <v>45945</v>
+      </c>
+      <c r="B108" t="n">
+        <v>5250.156996988818</v>
+      </c>
+      <c r="C108" t="n">
+        <v>3835.31772899447</v>
+      </c>
+      <c r="D108" t="n">
+        <v>5750.228625823009</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="3" t="n">
+        <v>45946</v>
+      </c>
+      <c r="B109" t="n">
+        <v>5122.717915891239</v>
+      </c>
+      <c r="C109" t="n">
+        <v>3695.926146478443</v>
+      </c>
+      <c r="D109" t="n">
+        <v>5457.477214600911</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="3" t="n">
+        <v>45947</v>
+      </c>
+      <c r="B110" t="n">
+        <v>5018.551923272699</v>
+      </c>
+      <c r="C110" t="n">
+        <v>3562.848627421927</v>
+      </c>
+      <c r="D110" t="n">
+        <v>5320.247162482847</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="3" t="n">
+        <v>45948</v>
+      </c>
+      <c r="B111" t="n">
+        <v>1358.5</v>
+      </c>
+      <c r="C111" t="n">
+        <v>211.7594215662148</v>
+      </c>
+      <c r="D111" t="n">
+        <v>2130.902139840257</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="3" t="n">
+        <v>45949</v>
+      </c>
+      <c r="B112" t="n">
+        <v>764.0567416266493</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0</v>
+      </c>
+      <c r="D112" t="n">
+        <v>1308.540612123209</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="3" t="n">
+        <v>45950</v>
+      </c>
+      <c r="B113" t="n">
+        <v>5326.947085194558</v>
+      </c>
+      <c r="C113" t="n">
+        <v>3892.477289419986</v>
+      </c>
+      <c r="D113" t="n">
+        <v>5729.673594836317</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="3" t="n">
+        <v>45951</v>
+      </c>
+      <c r="B114" t="n">
+        <v>5125.388233730071</v>
+      </c>
+      <c r="C114" t="n">
+        <v>3644.117634084264</v>
+      </c>
+      <c r="D114" t="n">
+        <v>5642.736164918847</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="3" t="n">
+        <v>45952</v>
+      </c>
+      <c r="B115" t="n">
+        <v>5188.368391186726</v>
+      </c>
+      <c r="C115" t="n">
+        <v>3762.761080032147</v>
+      </c>
+      <c r="D115" t="n">
+        <v>5597.416986520991</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="3" t="n">
+        <v>45953</v>
+      </c>
+      <c r="B116" t="n">
+        <v>5060.151197875969</v>
+      </c>
+      <c r="C116" t="n">
+        <v>3627.84663636791</v>
+      </c>
+      <c r="D116" t="n">
+        <v>5298.632273055903</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="3" t="n">
+        <v>45954</v>
+      </c>
+      <c r="B117" t="n">
+        <v>4945.499876019798</v>
+      </c>
+      <c r="C117" t="n">
+        <v>3404.734944284975</v>
+      </c>
+      <c r="D117" t="n">
+        <v>5250.413489395245</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="3" t="n">
+        <v>45955</v>
+      </c>
+      <c r="B118" t="n">
+        <v>1358.5</v>
+      </c>
+      <c r="C118" t="n">
+        <v>133.6736290073611</v>
+      </c>
+      <c r="D118" t="n">
+        <v>1959.419932738322</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="3" t="n">
+        <v>45956</v>
+      </c>
+      <c r="B119" t="n">
+        <v>634.3579500019511</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0</v>
+      </c>
+      <c r="D119" t="n">
+        <v>1207.575466430431</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="3" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B120" t="n">
+        <v>5239.382591103386</v>
+      </c>
+      <c r="C120" t="n">
+        <v>3835.411015525515</v>
+      </c>
+      <c r="D120" t="n">
+        <v>5560.816080743758</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="3" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B121" t="n">
+        <v>5077.596231274262</v>
+      </c>
+      <c r="C121" t="n">
+        <v>3741.770612214573</v>
+      </c>
+      <c r="D121" t="n">
+        <v>5575.549413810513</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="3" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B122" t="n">
+        <v>5325.373826269084</v>
+      </c>
+      <c r="C122" t="n">
+        <v>3795.70866867042</v>
+      </c>
+      <c r="D122" t="n">
+        <v>5595.161786602122</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="3" t="n">
+        <v>45960</v>
+      </c>
+      <c r="B123" t="n">
+        <v>5036.324525580413</v>
+      </c>
+      <c r="C123" t="n">
+        <v>3588.179898542147</v>
+      </c>
+      <c r="D123" t="n">
+        <v>5367.55557839993</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="3" t="n">
+        <v>45961</v>
+      </c>
+      <c r="B124" t="n">
+        <v>4933.43945181876</v>
+      </c>
+      <c r="C124" t="n">
+        <v>3368.457023985051</v>
+      </c>
+      <c r="D124" t="n">
+        <v>5315.045414808719</v>
       </c>
     </row>
   </sheetData>
